--- a/syllabus/330-syllabus.xlsx
+++ b/syllabus/330-syllabus.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27240" windowHeight="14920" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14980" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="149">
   <si>
     <t>Lecture</t>
   </si>
@@ -297,9 +297,6 @@
     <t>NC-14</t>
   </si>
   <si>
-    <t>Wedges</t>
-  </si>
-  <si>
     <t>Toolkit 1</t>
   </si>
   <si>
@@ -358,6 +355,117 @@
   </si>
   <si>
     <t>Water-Energy Nexus</t>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>water temperature rise</t>
+  </si>
+  <si>
+    <t>discussion</t>
+  </si>
+  <si>
+    <t>quantitative exercises</t>
+  </si>
+  <si>
+    <t>pulling and plotting data</t>
+  </si>
+  <si>
+    <t>personal energy inventory</t>
+  </si>
+  <si>
+    <t>Greenpeace discussion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hard and Soft Paths </t>
+  </si>
+  <si>
+    <t>Climate negotiation discussion</t>
+  </si>
+  <si>
+    <t>Economics module</t>
+  </si>
+  <si>
+    <t>Carol Dweck, Mindset</t>
+  </si>
+  <si>
+    <t>HK-01, HK-02</t>
+  </si>
+  <si>
+    <t>REPL Calculations</t>
+  </si>
+  <si>
+    <t>Spreadsheet Calculations</t>
+  </si>
+  <si>
+    <t>Quiz 1</t>
+  </si>
+  <si>
+    <t>Quiz 2</t>
+  </si>
+  <si>
+    <t>Quiz 3</t>
+  </si>
+  <si>
+    <t>Quiz 4</t>
+  </si>
+  <si>
+    <t>Quiz 5</t>
+  </si>
+  <si>
+    <t>Quiz 6</t>
+  </si>
+  <si>
+    <t>Quiz 7</t>
+  </si>
+  <si>
+    <t>Last Year Reading</t>
+  </si>
+  <si>
+    <t>Masters 4.1 4.2</t>
+  </si>
+  <si>
+    <t>Nat Cap Ch 10, hot air 13</t>
+  </si>
+  <si>
+    <t>Masters 1991 energy</t>
+  </si>
+  <si>
+    <t>H&amp;K 7&amp;8</t>
+  </si>
+  <si>
+    <t>Masters ch 1</t>
+  </si>
+  <si>
+    <t>H&amp;K 13 &amp; 14</t>
+  </si>
+  <si>
+    <t>M&amp;R Ch 5</t>
+  </si>
+  <si>
+    <t>Moore</t>
+  </si>
+  <si>
+    <t>check all H&amp;K readings</t>
+  </si>
+  <si>
+    <t>check all Hot Air</t>
+  </si>
+  <si>
+    <t>check all Natural Capital</t>
+  </si>
+  <si>
+    <t>Check all Masters and Randolph</t>
+  </si>
+  <si>
+    <t>Wedges, safe operating space?</t>
+  </si>
+  <si>
+    <t>HK-03, HK-04</t>
+  </si>
+  <si>
+    <t>GMC Sustainability Day</t>
   </si>
 </sst>
 </file>
@@ -370,6 +478,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -426,7 +535,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="105">
+  <cellStyleXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -532,8 +641,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -561,8 +672,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="105">
+  <cellStyles count="107">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -615,6 +729,7 @@
     <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -667,6 +782,7 @@
     <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -999,10 +1115,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1010,16 +1126,18 @@
     <col min="1" max="1" width="6.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="65.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="65.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="1" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -1033,27 +1151,32 @@
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J1"/>
-      <c r="K1" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="L1"/>
-    </row>
-    <row r="2" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="K1"/>
+      <c r="L1" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1066,17 +1189,20 @@
       <c r="D2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="6"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
-      <c r="J2"/>
-      <c r="K2" t="s">
-        <v>97</v>
-      </c>
-      <c r="L2"/>
-    </row>
-    <row r="3" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="I2" s="5"/>
+      <c r="K2"/>
+      <c r="L2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -1089,22 +1215,29 @@
       <c r="D3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5" t="s">
+      <c r="E3" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="9"/>
-      <c r="J3"/>
-      <c r="K3" t="s">
-        <v>97</v>
-      </c>
-      <c r="L3"/>
-    </row>
-    <row r="4" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="I3" s="5"/>
+      <c r="J3" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="K3"/>
+      <c r="L3" t="s">
+        <v>96</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -1117,20 +1250,25 @@
       <c r="D4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="6"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="J4"/>
-      <c r="K4" t="s">
-        <v>97</v>
-      </c>
-      <c r="L4"/>
-    </row>
-    <row r="5" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="I4" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="K4"/>
+      <c r="L4" t="s">
+        <v>96</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -1143,20 +1281,25 @@
       <c r="D5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="6" t="s">
+        <v>125</v>
+      </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
-      <c r="I5" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="J5"/>
-      <c r="K5" t="s">
-        <v>97</v>
-      </c>
-      <c r="L5"/>
-    </row>
-    <row r="6" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="I5" s="5"/>
+      <c r="J5" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K5"/>
+      <c r="L5" t="s">
+        <v>96</v>
+      </c>
+      <c r="M5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -1169,20 +1312,25 @@
       <c r="D6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="6" t="s">
+        <v>115</v>
+      </c>
       <c r="F6" s="5"/>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="5"/>
+      <c r="H6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="9"/>
-      <c r="J6"/>
-      <c r="K6" t="s">
-        <v>97</v>
-      </c>
-      <c r="L6"/>
-    </row>
-    <row r="7" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="I6" s="5"/>
+      <c r="J6" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="K6"/>
+      <c r="L6" t="s">
+        <v>96</v>
+      </c>
+      <c r="M6"/>
+    </row>
+    <row r="7" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -1195,19 +1343,24 @@
       <c r="D7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5" t="s">
+      <c r="E7" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="5"/>
-      <c r="J7"/>
-      <c r="K7" t="s">
-        <v>97</v>
-      </c>
-      <c r="L7"/>
-    </row>
-    <row r="8" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="H7" s="7"/>
+      <c r="I7" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="K7"/>
+      <c r="L7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M7"/>
+    </row>
+    <row r="8" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -1220,22 +1373,25 @@
       <c r="D8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="6"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="5"/>
+      <c r="H8" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="J8"/>
-      <c r="K8" t="s">
-        <v>98</v>
-      </c>
-      <c r="L8"/>
-    </row>
-    <row r="9" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="I8" s="5"/>
+      <c r="J8" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="K8"/>
+      <c r="L8" t="s">
+        <v>97</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A9" s="5">
         <v>4</v>
       </c>
@@ -1248,22 +1404,25 @@
       <c r="D9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5" t="s">
+      <c r="E9" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="5"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="J9"/>
-      <c r="K9" t="s">
-        <v>98</v>
-      </c>
-      <c r="L9"/>
-    </row>
-    <row r="10" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="I9" s="5"/>
+      <c r="J9" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9"/>
+      <c r="L9" t="s">
+        <v>97</v>
+      </c>
+      <c r="M9"/>
+    </row>
+    <row r="10" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A10" s="5">
         <v>5</v>
       </c>
@@ -1276,20 +1435,27 @@
       <c r="D10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="5"/>
+      <c r="E10" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="8"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="J10"/>
-      <c r="K10" t="s">
-        <v>98</v>
-      </c>
-      <c r="L10"/>
-    </row>
-    <row r="11" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="I10" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K10"/>
+      <c r="L10" t="s">
+        <v>97</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A11" s="5">
         <v>5</v>
       </c>
@@ -1302,21 +1468,24 @@
       <c r="D11" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5" t="s">
+      <c r="E11" s="6"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="H11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="5"/>
-      <c r="J11"/>
-      <c r="K11" t="s">
-        <v>98</v>
-      </c>
-      <c r="L11"/>
-    </row>
-    <row r="12" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="I11" s="5"/>
+      <c r="K11"/>
+      <c r="L11" t="s">
+        <v>97</v>
+      </c>
+      <c r="M11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A12" s="5">
         <v>6</v>
       </c>
@@ -1329,17 +1498,22 @@
       <c r="D12" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="5"/>
+      <c r="E12" s="6" t="s">
+        <v>116</v>
+      </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="J12"/>
-      <c r="K12" t="s">
-        <v>98</v>
-      </c>
-      <c r="L12"/>
-    </row>
-    <row r="13" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="I12" s="5"/>
+      <c r="K12"/>
+      <c r="L12" t="s">
+        <v>97</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A13" s="5">
         <v>6</v>
       </c>
@@ -1352,19 +1526,24 @@
       <c r="D13" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5" t="s">
+      <c r="E13" s="6"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="5"/>
-      <c r="J13"/>
-      <c r="K13" t="s">
-        <v>98</v>
-      </c>
-      <c r="L13"/>
-    </row>
-    <row r="14" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="H13" s="7"/>
+      <c r="I13" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="K13"/>
+      <c r="L13" t="s">
+        <v>97</v>
+      </c>
+      <c r="M13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A14" s="5">
         <v>7</v>
       </c>
@@ -1377,22 +1556,25 @@
       <c r="D14" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="E14" s="6" t="s">
+        <v>113</v>
+      </c>
       <c r="F14" s="5"/>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="5"/>
+      <c r="H14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J14"/>
-      <c r="K14" t="s">
-        <v>98</v>
-      </c>
-      <c r="L14"/>
-    </row>
-    <row r="15" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="I14" s="5"/>
+      <c r="J14" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="K14"/>
+      <c r="L14" t="s">
+        <v>97</v>
+      </c>
+      <c r="M14"/>
+    </row>
+    <row r="15" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A15" s="5">
         <v>7</v>
       </c>
@@ -1405,20 +1587,21 @@
       <c r="D15" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="5"/>
+      <c r="E15" s="6"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J15"/>
-      <c r="K15" t="s">
-        <v>99</v>
-      </c>
-      <c r="L15"/>
-    </row>
-    <row r="16" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="G15" s="5"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="K15"/>
+      <c r="L15" t="s">
+        <v>98</v>
+      </c>
+      <c r="M15"/>
+    </row>
+    <row r="16" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A16" s="5">
         <v>8</v>
       </c>
@@ -1431,20 +1614,23 @@
       <c r="D16" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5" t="s">
+      <c r="E16" s="6"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="9"/>
-      <c r="J16"/>
-      <c r="K16" t="s">
-        <v>99</v>
-      </c>
-      <c r="L16"/>
-    </row>
-    <row r="17" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="I16" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J16" s="9"/>
+      <c r="K16"/>
+      <c r="L16" t="s">
+        <v>98</v>
+      </c>
+      <c r="M16"/>
+    </row>
+    <row r="17" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A17" s="5">
         <v>8</v>
       </c>
@@ -1457,22 +1643,23 @@
       <c r="D17" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="5"/>
+      <c r="E17" s="6"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="5"/>
+      <c r="H17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="9"/>
-      <c r="J17" t="s">
+      <c r="I17" s="5"/>
+      <c r="J17" s="9"/>
+      <c r="K17" t="s">
         <v>88</v>
       </c>
-      <c r="K17" t="s">
-        <v>99</v>
-      </c>
-      <c r="L17"/>
-    </row>
-    <row r="18" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="L17" t="s">
+        <v>98</v>
+      </c>
+      <c r="M17"/>
+    </row>
+    <row r="18" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A18" s="5">
         <v>9</v>
       </c>
@@ -1485,22 +1672,23 @@
       <c r="D18" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5" t="s">
+      <c r="E18" s="6"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="9"/>
-      <c r="J18" t="s">
+      <c r="H18" s="7"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="9"/>
+      <c r="K18" t="s">
         <v>88</v>
       </c>
-      <c r="K18" t="s">
-        <v>99</v>
-      </c>
-      <c r="L18"/>
-    </row>
-    <row r="19" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="L18" t="s">
+        <v>98</v>
+      </c>
+      <c r="M18"/>
+    </row>
+    <row r="19" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A19" s="5">
         <v>9</v>
       </c>
@@ -1513,18 +1701,21 @@
       <c r="D19" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="5"/>
+      <c r="E19" s="6"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="9"/>
-      <c r="J19"/>
-      <c r="K19" t="s">
-        <v>99</v>
-      </c>
-      <c r="L19"/>
-    </row>
-    <row r="20" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="I19" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="J19" s="9"/>
+      <c r="K19"/>
+      <c r="L19" t="s">
+        <v>98</v>
+      </c>
+      <c r="M19"/>
+    </row>
+    <row r="20" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A20" s="5">
         <v>10</v>
       </c>
@@ -1537,24 +1728,27 @@
       <c r="D20" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5" t="s">
+      <c r="E20" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="H20" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H20" s="5"/>
-      <c r="I20" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="J20"/>
-      <c r="K20" t="s">
-        <v>100</v>
-      </c>
-      <c r="L20"/>
-    </row>
-    <row r="21" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="I20" s="5"/>
+      <c r="J20" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="K20"/>
+      <c r="L20" t="s">
+        <v>99</v>
+      </c>
+      <c r="M20"/>
+    </row>
+    <row r="21" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A21" s="5">
         <v>10</v>
       </c>
@@ -1567,18 +1761,19 @@
       <c r="D21" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="5"/>
+      <c r="E21" s="6"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="9"/>
-      <c r="J21"/>
-      <c r="K21" t="s">
-        <v>100</v>
-      </c>
-      <c r="L21"/>
-    </row>
-    <row r="22" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="G21" s="5"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="9"/>
+      <c r="K21"/>
+      <c r="L21" t="s">
+        <v>99</v>
+      </c>
+      <c r="M21"/>
+    </row>
+    <row r="22" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A22" s="5">
         <v>11</v>
       </c>
@@ -1591,20 +1786,23 @@
       <c r="D22" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="5"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="8"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="9" t="s">
+      <c r="I22" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="J22" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="J22"/>
-      <c r="K22" t="s">
-        <v>100</v>
-      </c>
-      <c r="L22"/>
-    </row>
-    <row r="23" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="K22"/>
+      <c r="L22" t="s">
+        <v>99</v>
+      </c>
+      <c r="M22"/>
+    </row>
+    <row r="23" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A23" s="5">
         <v>11</v>
       </c>
@@ -1615,26 +1813,27 @@
         <v>78</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="H23" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H23" s="5"/>
-      <c r="I23" s="9" t="s">
+      <c r="I23" s="5"/>
+      <c r="J23" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="J23"/>
-      <c r="K23" t="s">
-        <v>108</v>
-      </c>
-      <c r="L23"/>
-    </row>
-    <row r="24" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="K23"/>
+      <c r="L23" t="s">
+        <v>107</v>
+      </c>
+      <c r="M23"/>
+    </row>
+    <row r="24" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A24" s="5">
         <v>12</v>
       </c>
@@ -1645,22 +1844,23 @@
         <v>79</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="J24"/>
-      <c r="K24" t="s">
-        <v>108</v>
-      </c>
-      <c r="L24"/>
-    </row>
-    <row r="25" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="K24"/>
+      <c r="L24" t="s">
+        <v>107</v>
+      </c>
+      <c r="M24"/>
+    </row>
+    <row r="25" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A25" s="5">
         <v>12</v>
       </c>
@@ -1673,22 +1873,23 @@
       <c r="D25" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5" t="s">
+      <c r="E25" s="6"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="J25"/>
-      <c r="K25" t="s">
-        <v>108</v>
-      </c>
-      <c r="L25"/>
-    </row>
-    <row r="26" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="I25" s="5"/>
+      <c r="J25" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="K25"/>
+      <c r="L25" t="s">
+        <v>107</v>
+      </c>
+      <c r="M25"/>
+    </row>
+    <row r="26" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A26" s="5">
         <v>13</v>
       </c>
@@ -1701,20 +1902,21 @@
       <c r="D26" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="5" t="s">
+      <c r="E26" s="6"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H26" s="5"/>
-      <c r="I26" s="9"/>
-      <c r="J26"/>
-      <c r="K26" t="s">
-        <v>101</v>
-      </c>
-      <c r="L26"/>
-    </row>
-    <row r="27" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="I26" s="5"/>
+      <c r="J26" s="9"/>
+      <c r="K26"/>
+      <c r="L26" t="s">
+        <v>100</v>
+      </c>
+      <c r="M26"/>
+    </row>
+    <row r="27" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A27" s="5">
         <v>13</v>
       </c>
@@ -1727,18 +1929,21 @@
       <c r="D27" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="5"/>
+      <c r="E27" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="8"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
-      <c r="J27"/>
-      <c r="K27" t="s">
-        <v>101</v>
-      </c>
-      <c r="L27"/>
-    </row>
-    <row r="28" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="J27" s="5"/>
+      <c r="K27"/>
+      <c r="L27" t="s">
+        <v>100</v>
+      </c>
+      <c r="M27"/>
+    </row>
+    <row r="28" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A28" s="5">
         <v>14</v>
       </c>
@@ -1751,18 +1956,19 @@
       <c r="D28" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="5"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="8"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
-      <c r="J28"/>
-      <c r="K28" t="s">
-        <v>101</v>
-      </c>
-      <c r="L28"/>
-    </row>
-    <row r="29" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="J28" s="5"/>
+      <c r="K28"/>
+      <c r="L28" t="s">
+        <v>100</v>
+      </c>
+      <c r="M28"/>
+    </row>
+    <row r="29" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A29" s="5">
         <v>14</v>
       </c>
@@ -1773,22 +1979,23 @@
         <v>84</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E29" s="5"/>
+        <v>101</v>
+      </c>
+      <c r="E29" s="6"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="5"/>
+      <c r="H29" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H29" s="5"/>
       <c r="I29" s="5"/>
-      <c r="J29"/>
-      <c r="K29" t="s">
-        <v>101</v>
-      </c>
-      <c r="L29"/>
-    </row>
-    <row r="30" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="J29" s="5"/>
+      <c r="K29"/>
+      <c r="L29" t="s">
+        <v>100</v>
+      </c>
+      <c r="M29"/>
+    </row>
+    <row r="30" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A30" s="5">
         <v>15</v>
       </c>
@@ -1801,18 +2008,19 @@
       <c r="D30" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="5"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="8"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
-      <c r="J30"/>
-      <c r="K30" t="s">
-        <v>103</v>
-      </c>
-      <c r="L30"/>
-    </row>
-    <row r="31" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="J30" s="5"/>
+      <c r="K30"/>
+      <c r="L30" t="s">
+        <v>102</v>
+      </c>
+      <c r="M30"/>
+    </row>
+    <row r="31" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A31" s="5">
         <v>15</v>
       </c>
@@ -1825,20 +2033,21 @@
       <c r="D31" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5" t="s">
+      <c r="E31" s="6"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
-      <c r="J31"/>
-      <c r="K31" t="s">
-        <v>103</v>
-      </c>
-      <c r="L31"/>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="J31" s="5"/>
+      <c r="K31"/>
+      <c r="L31" t="s">
+        <v>102</v>
+      </c>
+      <c r="M31"/>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="9"/>
       <c r="B32" s="9">
         <v>31</v>
@@ -1849,29 +2058,63 @@
       <c r="D32" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E32" s="9"/>
+      <c r="E32" s="6"/>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
-      <c r="K32" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="33" spans="4:4">
+      <c r="J32" s="9"/>
+      <c r="L32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="4:10">
       <c r="D33" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="4:10">
+      <c r="D34" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="34" spans="4:4">
-      <c r="D34" s="1" t="s">
-        <v>112</v>
+      <c r="E34" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" spans="4:10">
+      <c r="D35" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="4:10">
+      <c r="J36" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="4:10">
+      <c r="J37" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38" spans="4:10">
+      <c r="J38" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="39" spans="4:10">
+      <c r="J39" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>

--- a/syllabus/330-syllabus.xlsx
+++ b/syllabus/330-syllabus.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="154">
   <si>
     <t>Lecture</t>
   </si>
@@ -108,9 +108,6 @@
     <t>Physics of Energy</t>
   </si>
   <si>
-    <t>Biological Processes</t>
-  </si>
-  <si>
     <t>Energy Conversion</t>
   </si>
   <si>
@@ -153,12 +150,6 @@
     <t>Energy Efficiency</t>
   </si>
   <si>
-    <t>Climate Impacts of Energy</t>
-  </si>
-  <si>
-    <t>Health Impacts of Energy</t>
-  </si>
-  <si>
     <t>Global Access to Energy</t>
   </si>
   <si>
@@ -180,15 +171,9 @@
     <t>Homework Reflection 3</t>
   </si>
   <si>
-    <t>Timeline</t>
-  </si>
-  <si>
     <t>Wrapup</t>
   </si>
   <si>
-    <t>Local/global Energy Solutions</t>
-  </si>
-  <si>
     <t>Presentations</t>
   </si>
   <si>
@@ -291,12 +276,6 @@
     <t>Lovins 1976</t>
   </si>
   <si>
-    <t>NC-12</t>
-  </si>
-  <si>
-    <t>NC-14</t>
-  </si>
-  <si>
     <t>Toolkit 1</t>
   </si>
   <si>
@@ -324,21 +303,12 @@
     <t>Policy</t>
   </si>
   <si>
-    <t>Solutions</t>
-  </si>
-  <si>
     <t>Projects</t>
   </si>
   <si>
     <t>HK-13 The Building Blocks of Matter, HK-14 Nuclear Power Fission, Moore 2005</t>
   </si>
   <si>
-    <t>HK-07 Energy from fossil fuels, HK-08 Air Pollution and Energy Use</t>
-  </si>
-  <si>
-    <t>masters?</t>
-  </si>
-  <si>
     <t>fracking?</t>
   </si>
   <si>
@@ -348,15 +318,6 @@
     <t>Life Cycle Energy and Cost Analysis</t>
   </si>
   <si>
-    <t>Water and Drought</t>
-  </si>
-  <si>
-    <t>Hydraulic Fracturing</t>
-  </si>
-  <si>
-    <t>Water-Energy Nexus</t>
-  </si>
-  <si>
     <t>Activity</t>
   </si>
   <si>
@@ -384,15 +345,9 @@
     <t>Climate negotiation discussion</t>
   </si>
   <si>
-    <t>Economics module</t>
-  </si>
-  <si>
     <t>Carol Dweck, Mindset</t>
   </si>
   <si>
-    <t>HK-01, HK-02</t>
-  </si>
-  <si>
     <t>REPL Calculations</t>
   </si>
   <si>
@@ -423,27 +378,15 @@
     <t>Last Year Reading</t>
   </si>
   <si>
-    <t>Masters 4.1 4.2</t>
-  </si>
-  <si>
     <t>Nat Cap Ch 10, hot air 13</t>
   </si>
   <si>
     <t>Masters 1991 energy</t>
   </si>
   <si>
-    <t>H&amp;K 7&amp;8</t>
-  </si>
-  <si>
     <t>Masters ch 1</t>
   </si>
   <si>
-    <t>H&amp;K 13 &amp; 14</t>
-  </si>
-  <si>
-    <t>M&amp;R Ch 5</t>
-  </si>
-  <si>
     <t>Moore</t>
   </si>
   <si>
@@ -462,23 +405,94 @@
     <t>Wedges, safe operating space?</t>
   </si>
   <si>
-    <t>HK-03, HK-04</t>
-  </si>
-  <si>
     <t>GMC Sustainability Day</t>
+  </si>
+  <si>
+    <t>rational middle videos</t>
+  </si>
+  <si>
+    <t>Carbon (Critters and Combustion)</t>
+  </si>
+  <si>
+    <t>Mackay-07 Heating and Cooling</t>
+  </si>
+  <si>
+    <t>Mackay-01, HK-01-Introduction, HK-02-Energy Mechanics</t>
+  </si>
+  <si>
+    <t>HK-03-Conservation of Energy, HK-04-Heat and Work</t>
+  </si>
+  <si>
+    <t>HK-07 Energy from Fossil Fuels</t>
+  </si>
+  <si>
+    <t>HK-08 Air Pollution and Energy Use</t>
+  </si>
+  <si>
+    <t>HK-09 Global Warming and Thermal Pollution</t>
+  </si>
+  <si>
+    <t>HK-19 A National and Personal Commitment</t>
+  </si>
+  <si>
+    <t>NC-11 Aqueous Solutions</t>
+  </si>
+  <si>
+    <t>NC-12 Climate</t>
+  </si>
+  <si>
+    <t>NC-14 Human Capitalism</t>
+  </si>
+  <si>
+    <t>Energy and Water</t>
+  </si>
+  <si>
+    <t>Energy and Agriculture</t>
+  </si>
+  <si>
+    <t>Energy and Human Health</t>
+  </si>
+  <si>
+    <t>Energy and Climate</t>
+  </si>
+  <si>
+    <t>Mackay-03 Cars, NC-02 Reinventing the Wheels</t>
+  </si>
+  <si>
+    <t>NC-12 Climate, NC-14 Human Capitalism</t>
+  </si>
+  <si>
+    <t>Energy and Economics</t>
+  </si>
+  <si>
+    <t>TBD (Randolph and Masters?)</t>
+  </si>
+  <si>
+    <t>NC-11 Aqueous Solutions, EPA Hydraulic Fracturing Study</t>
+  </si>
+  <si>
+    <t>Pacala and Socolow Wedges</t>
+  </si>
+  <si>
+    <t>NAACP Coal Blooded</t>
+  </si>
+  <si>
+    <t>Mackay-13 Food and farming, NC-10 Food for Life</t>
+  </si>
+  <si>
+    <t>Power Africa Report, Goldemberg 1985</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -517,6 +531,14 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -535,7 +557,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="107">
+  <cellStyleXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -643,8 +665,66 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -675,8 +755,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="107">
+  <cellStyles count="165">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -730,6 +820,35 @@
     <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -783,6 +902,35 @@
     <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1115,10 +1263,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1127,17 +1275,18 @@
     <col min="2" max="2" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="65.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="70.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="65.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="1" spans="1:14" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -1150,33 +1299,36 @@
       <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>112</v>
+      <c r="E1" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K1"/>
-      <c r="L1" s="10" t="s">
-        <v>95</v>
-      </c>
+      <c r="L1"/>
       <c r="M1" s="10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
+        <v>88</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1184,25 +1336,24 @@
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="5"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="6"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
-      <c r="K2"/>
-      <c r="L2" t="s">
-        <v>96</v>
-      </c>
+      <c r="J2" s="5"/>
+      <c r="L2"/>
       <c r="M2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
+        <v>89</v>
+      </c>
+      <c r="N2"/>
+    </row>
+    <row r="3" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -1210,34 +1361,34 @@
         <v>2</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5" t="s">
+      <c r="E3" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="K3"/>
-      <c r="L3" t="s">
-        <v>96</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="J3" s="5"/>
+      <c r="K3" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="L3"/>
+      <c r="M3" t="s">
+        <v>89</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -1245,30 +1396,34 @@
         <v>3</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="5"/>
+      <c r="E4" s="14" t="s">
+        <v>85</v>
+      </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="K4"/>
-      <c r="L4" t="s">
-        <v>96</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
+        <v>8</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="L4"/>
+      <c r="M4" t="s">
+        <v>89</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -1276,30 +1431,30 @@
         <v>4</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="F5" s="5"/>
+      <c r="E5" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>110</v>
+      </c>
       <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="K5"/>
-      <c r="L5" t="s">
-        <v>96</v>
-      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="L5"/>
       <c r="M5" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="N5"/>
+    </row>
+    <row r="6" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -1307,30 +1462,30 @@
         <v>5</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F6" s="5"/>
+      <c r="E6" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>102</v>
+      </c>
       <c r="G6" s="5"/>
-      <c r="H6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="K6"/>
-      <c r="L6" t="s">
-        <v>96</v>
-      </c>
-      <c r="M6"/>
-    </row>
-    <row r="7" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="H6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="L6"/>
+      <c r="M6" t="s">
+        <v>89</v>
+      </c>
+      <c r="N6"/>
+    </row>
+    <row r="7" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -1338,29 +1493,35 @@
         <v>6</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="K7"/>
-      <c r="L7" t="s">
-        <v>96</v>
-      </c>
-      <c r="M7"/>
-    </row>
-    <row r="8" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="I7" s="7"/>
+      <c r="J7" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="L7"/>
+      <c r="M7" t="s">
+        <v>89</v>
+      </c>
+      <c r="N7"/>
+    </row>
+    <row r="8" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -1368,30 +1529,31 @@
         <v>7</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="F8" s="6"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="K8"/>
-      <c r="L8" t="s">
-        <v>97</v>
-      </c>
-      <c r="M8" s="11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="H8" s="5"/>
+      <c r="I8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="L8"/>
+      <c r="M8" t="s">
+        <v>90</v>
+      </c>
+      <c r="N8" s="11"/>
+    </row>
+    <row r="9" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A9" s="5">
         <v>4</v>
       </c>
@@ -1399,30 +1561,33 @@
         <v>8</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" s="5"/>
+        <v>98</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="I9" s="5"/>
-      <c r="J9" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="K9"/>
-      <c r="L9" t="s">
-        <v>97</v>
-      </c>
-      <c r="M9"/>
-    </row>
-    <row r="10" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="J9" s="5"/>
+      <c r="K9" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9"/>
+      <c r="M9" t="s">
+        <v>90</v>
+      </c>
+      <c r="N9"/>
+    </row>
+    <row r="10" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A10" s="5">
         <v>5</v>
       </c>
@@ -1430,32 +1595,35 @@
         <v>9</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="K10"/>
-      <c r="L10" t="s">
-        <v>97</v>
-      </c>
-      <c r="M10" s="9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
+        <v>147</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="L10"/>
+      <c r="M10" t="s">
+        <v>90</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A11" s="5">
         <v>5</v>
       </c>
@@ -1463,29 +1631,30 @@
         <v>10</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="I11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="5"/>
-      <c r="K11"/>
-      <c r="L11" t="s">
-        <v>97</v>
-      </c>
+      <c r="J11" s="5"/>
+      <c r="L11"/>
       <c r="M11" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
+        <v>90</v>
+      </c>
+      <c r="N11"/>
+    </row>
+    <row r="12" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A12" s="5">
         <v>6</v>
       </c>
@@ -1493,27 +1662,28 @@
         <v>11</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="F12" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>103</v>
+      </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
-      <c r="K12"/>
-      <c r="L12" t="s">
-        <v>97</v>
-      </c>
-      <c r="M12" s="9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="J12" s="5"/>
+      <c r="L12"/>
+      <c r="M12" t="s">
+        <v>90</v>
+      </c>
+      <c r="N12" s="9"/>
+    </row>
+    <row r="13" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A13" s="5">
         <v>6</v>
       </c>
@@ -1521,29 +1691,29 @@
         <v>12</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="K13"/>
-      <c r="L13" t="s">
-        <v>97</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" s="7"/>
+      <c r="J13" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="L13"/>
       <c r="M13" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
+        <v>90</v>
+      </c>
+      <c r="N13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A14" s="5">
         <v>7</v>
       </c>
@@ -1551,30 +1721,30 @@
         <v>13</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="F14" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>100</v>
+      </c>
       <c r="G14" s="5"/>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="5"/>
+      <c r="I14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="K14"/>
-      <c r="L14" t="s">
-        <v>97</v>
-      </c>
-      <c r="M14"/>
-    </row>
-    <row r="15" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="J14" s="5"/>
+      <c r="K14" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="L14"/>
+      <c r="M14" t="s">
+        <v>90</v>
+      </c>
+      <c r="N14"/>
+    </row>
+    <row r="15" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A15" s="5">
         <v>7</v>
       </c>
@@ -1582,26 +1752,27 @@
         <v>14</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="5"/>
+        <v>36</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="F15" s="6"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="K15"/>
-      <c r="L15" t="s">
-        <v>98</v>
-      </c>
-      <c r="M15"/>
-    </row>
-    <row r="16" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="H15" s="5"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="9"/>
+      <c r="L15"/>
+      <c r="M15" t="s">
+        <v>91</v>
+      </c>
+      <c r="N15"/>
+    </row>
+    <row r="16" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A16" s="5">
         <v>8</v>
       </c>
@@ -1609,28 +1780,30 @@
         <v>15</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="J16" s="9"/>
-      <c r="K16"/>
-      <c r="L16" t="s">
-        <v>98</v>
-      </c>
-      <c r="M16"/>
-    </row>
-    <row r="17" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="I16" s="5"/>
+      <c r="J16" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="L16"/>
+      <c r="M16" t="s">
+        <v>91</v>
+      </c>
+      <c r="N16"/>
+    </row>
+    <row r="17" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A17" s="5">
         <v>8</v>
       </c>
@@ -1638,28 +1811,30 @@
         <v>16</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="5"/>
+        <v>38</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="F17" s="6"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="5"/>
+      <c r="I17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="9"/>
-      <c r="K17" t="s">
-        <v>88</v>
-      </c>
+      <c r="J17" s="5"/>
       <c r="L17" t="s">
-        <v>98</v>
-      </c>
-      <c r="M17"/>
-    </row>
-    <row r="18" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
+        <v>83</v>
+      </c>
+      <c r="M17" t="s">
+        <v>91</v>
+      </c>
+      <c r="N17"/>
+    </row>
+    <row r="18" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A18" s="5">
         <v>9</v>
       </c>
@@ -1667,28 +1842,29 @@
         <v>17</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="9"/>
-      <c r="K18" t="s">
-        <v>88</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" s="7"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="9"/>
       <c r="L18" t="s">
-        <v>98</v>
-      </c>
-      <c r="M18"/>
-    </row>
-    <row r="19" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
+        <v>83</v>
+      </c>
+      <c r="M18" t="s">
+        <v>91</v>
+      </c>
+      <c r="N18"/>
+    </row>
+    <row r="19" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A19" s="5">
         <v>9</v>
       </c>
@@ -1696,26 +1872,26 @@
         <v>18</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="5"/>
+        <v>40</v>
+      </c>
+      <c r="F19" s="6"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="J19" s="9"/>
-      <c r="K19"/>
-      <c r="L19" t="s">
-        <v>98</v>
-      </c>
-      <c r="M19"/>
-    </row>
-    <row r="20" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="I19" s="5"/>
+      <c r="J19" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="K19" s="9"/>
+      <c r="L19"/>
+      <c r="M19" t="s">
+        <v>91</v>
+      </c>
+      <c r="N19"/>
+    </row>
+    <row r="20" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A20" s="5">
         <v>10</v>
       </c>
@@ -1723,32 +1899,33 @@
         <v>19</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="I20" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I20" s="5"/>
-      <c r="J20" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="K20"/>
-      <c r="L20" t="s">
-        <v>99</v>
-      </c>
-      <c r="M20"/>
-    </row>
-    <row r="21" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="J20" s="5"/>
+      <c r="K20" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="L20"/>
+      <c r="M20" t="s">
+        <v>92</v>
+      </c>
+      <c r="N20"/>
+    </row>
+    <row r="21" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A21" s="5">
         <v>10</v>
       </c>
@@ -1756,24 +1933,29 @@
         <v>20</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="5"/>
+        <v>42</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F21" s="6"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="9"/>
-      <c r="K21"/>
-      <c r="L21" t="s">
-        <v>99</v>
-      </c>
-      <c r="M21"/>
-    </row>
-    <row r="22" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="H21" s="5"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="L21"/>
+      <c r="M21" t="s">
+        <v>92</v>
+      </c>
+      <c r="N21"/>
+    </row>
+    <row r="22" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A22" s="5">
         <v>11</v>
       </c>
@@ -1781,28 +1963,31 @@
         <v>21</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="K22"/>
-      <c r="L22" t="s">
-        <v>99</v>
-      </c>
-      <c r="M22"/>
-    </row>
-    <row r="23" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
+        <v>144</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="L22"/>
+      <c r="M22" t="s">
+        <v>92</v>
+      </c>
+      <c r="N22"/>
+    </row>
+    <row r="23" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A23" s="5">
         <v>11</v>
       </c>
@@ -1810,30 +1995,32 @@
         <v>22</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="I23" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I23" s="5"/>
-      <c r="J23" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="K23"/>
-      <c r="L23" t="s">
-        <v>107</v>
-      </c>
-      <c r="M23"/>
-    </row>
-    <row r="24" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="J23" s="5"/>
+      <c r="K23" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="L23"/>
+      <c r="M23" t="s">
+        <v>97</v>
+      </c>
+      <c r="N23"/>
+    </row>
+    <row r="24" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A24" s="5">
         <v>12</v>
       </c>
@@ -1841,26 +2028,29 @@
         <v>23</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="K24"/>
-      <c r="L24" t="s">
-        <v>107</v>
-      </c>
-      <c r="M24"/>
-    </row>
-    <row r="25" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
+        <v>142</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="L24"/>
+      <c r="M24" t="s">
+        <v>97</v>
+      </c>
+      <c r="N24"/>
+    </row>
+    <row r="25" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A25" s="5">
         <v>12</v>
       </c>
@@ -1868,28 +2058,31 @@
         <v>24</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H25" s="5"/>
       <c r="I25" s="5"/>
-      <c r="J25" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K25"/>
-      <c r="L25" t="s">
-        <v>107</v>
-      </c>
-      <c r="M25"/>
-    </row>
-    <row r="26" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="J25" s="5"/>
+      <c r="K25" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="L25"/>
+      <c r="M25" t="s">
+        <v>97</v>
+      </c>
+      <c r="N25"/>
+    </row>
+    <row r="26" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A26" s="5">
         <v>13</v>
       </c>
@@ -1897,26 +2090,27 @@
         <v>25</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="14"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I26" s="5"/>
-      <c r="J26" s="9"/>
-      <c r="K26"/>
-      <c r="L26" t="s">
-        <v>100</v>
-      </c>
-      <c r="M26"/>
-    </row>
-    <row r="27" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="J26" s="5"/>
+      <c r="K26" s="9"/>
+      <c r="L26"/>
+      <c r="M26" t="s">
+        <v>93</v>
+      </c>
+      <c r="N26"/>
+    </row>
+    <row r="27" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A27" s="5">
         <v>13</v>
       </c>
@@ -1924,26 +2118,29 @@
         <v>26</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="5"/>
+        <v>45</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G27" s="5"/>
+      <c r="H27" s="8"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
-      <c r="K27"/>
-      <c r="L27" t="s">
-        <v>100</v>
-      </c>
-      <c r="M27"/>
-    </row>
-    <row r="28" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="K27" s="5"/>
+      <c r="L27"/>
+      <c r="M27" t="s">
+        <v>93</v>
+      </c>
+      <c r="N27"/>
+    </row>
+    <row r="28" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A28" s="5">
         <v>14</v>
       </c>
@@ -1951,24 +2148,29 @@
         <v>27</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="5"/>
+        <v>46</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="8"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
-      <c r="K28"/>
-      <c r="L28" t="s">
-        <v>100</v>
-      </c>
-      <c r="M28"/>
-    </row>
-    <row r="29" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="K28" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="L28"/>
+      <c r="M28" t="s">
+        <v>93</v>
+      </c>
+      <c r="N28"/>
+    </row>
+    <row r="29" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A29" s="5">
         <v>14</v>
       </c>
@@ -1976,26 +2178,31 @@
         <v>28</v>
       </c>
       <c r="C29" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="F29" s="6"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29" s="5"/>
+      <c r="K29" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D29" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29"/>
-      <c r="L29" t="s">
-        <v>100</v>
-      </c>
-      <c r="M29"/>
-    </row>
-    <row r="30" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="L29"/>
+      <c r="M29" t="s">
+        <v>93</v>
+      </c>
+      <c r="N29"/>
+    </row>
+    <row r="30" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A30" s="5">
         <v>15</v>
       </c>
@@ -2003,24 +2210,25 @@
         <v>29</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="5"/>
+        <v>51</v>
+      </c>
+      <c r="E30" s="14"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="8"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
-      <c r="K30"/>
-      <c r="L30" t="s">
-        <v>102</v>
-      </c>
-      <c r="M30"/>
-    </row>
-    <row r="31" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="K30" s="5"/>
+      <c r="L30"/>
+      <c r="M30" t="s">
+        <v>94</v>
+      </c>
+      <c r="N30"/>
+    </row>
+    <row r="31" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A31" s="5">
         <v>15</v>
       </c>
@@ -2028,93 +2236,107 @@
         <v>30</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" s="14"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
-      <c r="K31"/>
-      <c r="L31" t="s">
-        <v>102</v>
-      </c>
-      <c r="M31"/>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="K31" s="5"/>
+      <c r="L31"/>
+      <c r="M31" t="s">
+        <v>94</v>
+      </c>
+      <c r="N31"/>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="9"/>
       <c r="B32" s="9">
         <v>31</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="9"/>
+        <v>50</v>
+      </c>
+      <c r="E32" s="14"/>
+      <c r="F32" s="6"/>
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
-      <c r="L32" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="33" spans="4:10">
-      <c r="D33" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="34" spans="4:10">
-      <c r="D34" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="35" spans="4:10">
-      <c r="D35" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="36" spans="4:10">
-      <c r="J36" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="37" spans="4:10">
-      <c r="J37" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="38" spans="4:10">
-      <c r="J38" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="39" spans="4:10">
-      <c r="J39" s="1" t="s">
-        <v>145</v>
+      <c r="K32" s="9"/>
+      <c r="M32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="4:11">
+      <c r="D33" s="6"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="4:11">
+      <c r="E34" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="4:11">
+      <c r="E35" s="15"/>
+    </row>
+    <row r="36" spans="4:11">
+      <c r="E36" s="15"/>
+      <c r="K36" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="4:11">
+      <c r="E37" s="15"/>
+      <c r="K37" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="38" spans="4:11">
+      <c r="E38" s="15"/>
+      <c r="K38" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="39" spans="4:11">
+      <c r="E39" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" spans="4:11">
+      <c r="E40" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>

--- a/syllabus/330-syllabus.xlsx
+++ b/syllabus/330-syllabus.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14980" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25220" windowHeight="28360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="147">
   <si>
     <t>Lecture</t>
   </si>
@@ -51,12 +51,6 @@
     <t>Choose topic</t>
   </si>
   <si>
-    <t>Project proposal</t>
-  </si>
-  <si>
-    <t>Proposal feedback</t>
-  </si>
-  <si>
     <t>First draft</t>
   </si>
   <si>
@@ -87,12 +81,6 @@
     <t>Homework 5</t>
   </si>
   <si>
-    <t>Homework Reflection 4</t>
-  </si>
-  <si>
-    <t>Homework Reflection 5</t>
-  </si>
-  <si>
     <t>Outline</t>
   </si>
   <si>
@@ -160,15 +148,6 @@
   </si>
   <si>
     <t>Global Energy Policy</t>
-  </si>
-  <si>
-    <t>Homework Reflection 1</t>
-  </si>
-  <si>
-    <t>Homework Reflection 2</t>
-  </si>
-  <si>
-    <t>Homework Reflection 3</t>
   </si>
   <si>
     <t>Wrapup</t>
@@ -557,8 +536,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="165">
+  <cellStyleXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -766,7 +753,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="165">
+  <cellStyles count="173">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -849,6 +836,10 @@
     <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -931,6 +922,10 @@
     <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1265,8 +1260,8 @@
   </sheetPr>
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1303,13 +1298,13 @@
         <v>7</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>4</v>
@@ -1322,10 +1317,10 @@
       </c>
       <c r="L1"/>
       <c r="M1" s="10" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1">
@@ -1336,10 +1331,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="6"/>
@@ -1349,7 +1344,7 @@
       <c r="J2" s="5"/>
       <c r="L2"/>
       <c r="M2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="N2"/>
     </row>
@@ -1361,31 +1356,31 @@
         <v>2</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="9" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="L3"/>
       <c r="M3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1">
@@ -1396,13 +1391,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -1410,17 +1405,17 @@
         <v>8</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="L4"/>
       <c r="M4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1">
@@ -1431,26 +1426,26 @@
         <v>4</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="G5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="9" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="L5"/>
       <c r="M5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="N5"/>
     </row>
@@ -1462,26 +1457,26 @@
         <v>5</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="9" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="L6"/>
       <c r="M6" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="N6"/>
     </row>
@@ -1493,31 +1488,31 @@
         <v>6</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="5" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="L7"/>
       <c r="M7" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="N7"/>
     </row>
@@ -1529,13 +1524,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="5"/>
@@ -1545,11 +1540,11 @@
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="L8"/>
       <c r="M8" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="N8" s="11"/>
     </row>
@@ -1561,29 +1556,27 @@
         <v>8</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D9" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E9" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>105</v>
-      </c>
       <c r="G9" s="5"/>
-      <c r="H9" s="5" t="s">
-        <v>47</v>
-      </c>
+      <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="9" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="L9"/>
       <c r="M9" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="N9"/>
     </row>
@@ -1595,32 +1588,32 @@
         <v>9</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="8"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="L10"/>
       <c r="M10" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1">
@@ -1631,26 +1624,24 @@
         <v>10</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>10</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="L11"/>
       <c r="M11" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="N11"/>
     </row>
@@ -1662,16 +1653,16 @@
         <v>11</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -1679,7 +1670,7 @@
       <c r="J12" s="5"/>
       <c r="L12"/>
       <c r="M12" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="N12" s="9"/>
     </row>
@@ -1691,26 +1682,26 @@
         <v>12</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I13" s="7"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="J13" s="5" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="L13"/>
       <c r="M13" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="N13" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1">
@@ -1721,26 +1712,24 @@
         <v>13</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="9" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="L14"/>
       <c r="M14" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="N14"/>
     </row>
@@ -1752,23 +1741,25 @@
         <v>14</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="7"/>
+      <c r="I15" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="J15" s="5"/>
       <c r="K15" s="9"/>
       <c r="L15"/>
       <c r="M15" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="N15"/>
     </row>
@@ -1780,26 +1771,26 @@
         <v>15</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="5" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="L16"/>
       <c r="M16" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="N16"/>
     </row>
@@ -1811,26 +1802,23 @@
         <v>16</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="5" t="s">
-        <v>24</v>
-      </c>
       <c r="J17" s="5"/>
       <c r="L17" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="M17" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="N17"/>
     </row>
@@ -1842,25 +1830,23 @@
         <v>17</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E18" s="14"/>
       <c r="F18" s="6"/>
       <c r="G18" s="5"/>
-      <c r="H18" s="5" t="s">
-        <v>49</v>
-      </c>
+      <c r="H18" s="5"/>
       <c r="I18" s="7"/>
       <c r="J18" s="5"/>
       <c r="K18" s="9"/>
       <c r="L18" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="M18" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="N18"/>
     </row>
@@ -1872,22 +1858,22 @@
         <v>18</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="K19" s="9"/>
       <c r="L19"/>
       <c r="M19" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="N19"/>
     </row>
@@ -1899,29 +1885,26 @@
         <v>19</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E20" s="14"/>
       <c r="F20" s="6" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J20" s="5"/>
       <c r="K20" s="9" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="L20"/>
       <c r="M20" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="N20"/>
     </row>
@@ -1933,13 +1916,13 @@
         <v>20</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="5"/>
@@ -1947,11 +1930,11 @@
       <c r="I21" s="7"/>
       <c r="J21" s="5"/>
       <c r="K21" s="9" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="L21"/>
       <c r="M21" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="N21"/>
     </row>
@@ -1963,27 +1946,29 @@
         <v>21</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="5"/>
       <c r="H22" s="8"/>
-      <c r="I22" s="5"/>
+      <c r="I22" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="J22" s="5" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="L22"/>
       <c r="M22" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="N22"/>
     </row>
@@ -1995,28 +1980,23 @@
         <v>22</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="G23" s="5"/>
-      <c r="H23" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="H23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="9" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L23"/>
       <c r="M23" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="N23"/>
     </row>
@@ -2028,25 +2008,27 @@
         <v>23</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="5"/>
       <c r="H24" s="8"/>
-      <c r="I24" s="7"/>
+      <c r="I24" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="J24" s="5"/>
       <c r="K24" s="9" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="L24"/>
       <c r="M24" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="N24"/>
     </row>
@@ -2058,27 +2040,27 @@
         <v>24</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="9" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="L25"/>
       <c r="M25" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="N25"/>
     </row>
@@ -2090,23 +2072,20 @@
         <v>25</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E26" s="14"/>
       <c r="F26" s="6"/>
       <c r="G26" s="5"/>
       <c r="H26" s="8"/>
-      <c r="I26" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="J26" s="5"/>
       <c r="K26" s="9"/>
       <c r="L26"/>
       <c r="M26" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="N26"/>
     </row>
@@ -2118,16 +2097,16 @@
         <v>26</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="8"/>
@@ -2136,7 +2115,7 @@
       <c r="K27" s="5"/>
       <c r="L27"/>
       <c r="M27" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="N27"/>
     </row>
@@ -2148,13 +2127,13 @@
         <v>27</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="5"/>
@@ -2162,11 +2141,11 @@
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="L28"/>
       <c r="M28" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="N28"/>
     </row>
@@ -2178,27 +2157,27 @@
         <v>28</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J29" s="5"/>
       <c r="K29" s="9" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="L29"/>
       <c r="M29" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="N29"/>
     </row>
@@ -2210,10 +2189,10 @@
         <v>29</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E30" s="14"/>
       <c r="F30" s="6"/>
@@ -2224,7 +2203,7 @@
       <c r="K30" s="5"/>
       <c r="L30"/>
       <c r="M30" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="N30"/>
     </row>
@@ -2236,23 +2215,21 @@
         <v>30</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E31" s="14"/>
       <c r="F31" s="6"/>
       <c r="G31" s="5"/>
-      <c r="H31" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
       <c r="L31"/>
       <c r="M31" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="N31"/>
     </row>
@@ -2262,10 +2239,10 @@
         <v>31</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="6"/>
@@ -2275,25 +2252,25 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c r="M32" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="4:11">
       <c r="D33" s="6"/>
       <c r="E33" s="15"/>
       <c r="F33" s="6" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="4:11">
       <c r="E34" s="15" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="4:11">
@@ -2302,35 +2279,35 @@
     <row r="36" spans="4:11">
       <c r="E36" s="15"/>
       <c r="K36" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" spans="4:11">
       <c r="E37" s="15"/>
       <c r="K37" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="4:11">
       <c r="E38" s="15"/>
       <c r="K38" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="4:11">
       <c r="E39" s="15" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="4:11">
       <c r="E40" s="15" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/syllabus/330-syllabus.xlsx
+++ b/syllabus/330-syllabus.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25220" windowHeight="28360" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="46120" windowHeight="28360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="139">
   <si>
     <t>Lecture</t>
   </si>
@@ -255,12 +255,6 @@
     <t>Lovins 1976</t>
   </si>
   <si>
-    <t>Toolkit 1</t>
-  </si>
-  <si>
-    <t>Toolkit 2</t>
-  </si>
-  <si>
     <t>HK-12 Electricity from Solar, Wind, and Hydro</t>
   </si>
   <si>
@@ -288,9 +282,6 @@
     <t>HK-13 The Building Blocks of Matter, HK-14 Nuclear Power Fission, Moore 2005</t>
   </si>
   <si>
-    <t>fracking?</t>
-  </si>
-  <si>
     <t>Impacts and Intersections</t>
   </si>
   <si>
@@ -369,21 +360,9 @@
     <t>Moore</t>
   </si>
   <si>
-    <t>check all H&amp;K readings</t>
-  </si>
-  <si>
-    <t>check all Hot Air</t>
-  </si>
-  <si>
-    <t>check all Natural Capital</t>
-  </si>
-  <si>
     <t>Check all Masters and Randolph</t>
   </si>
   <si>
-    <t>Wedges, safe operating space?</t>
-  </si>
-  <si>
     <t>GMC Sustainability Day</t>
   </si>
   <si>
@@ -396,12 +375,6 @@
     <t>Mackay-07 Heating and Cooling</t>
   </si>
   <si>
-    <t>Mackay-01, HK-01-Introduction, HK-02-Energy Mechanics</t>
-  </si>
-  <si>
-    <t>HK-03-Conservation of Energy, HK-04-Heat and Work</t>
-  </si>
-  <si>
     <t>HK-07 Energy from Fossil Fuels</t>
   </si>
   <si>
@@ -414,15 +387,6 @@
     <t>HK-19 A National and Personal Commitment</t>
   </si>
   <si>
-    <t>NC-11 Aqueous Solutions</t>
-  </si>
-  <si>
-    <t>NC-12 Climate</t>
-  </si>
-  <si>
-    <t>NC-14 Human Capitalism</t>
-  </si>
-  <si>
     <t>Energy and Water</t>
   </si>
   <si>
@@ -460,6 +424,18 @@
   </si>
   <si>
     <t>Power Africa Report, Goldemberg 1985</t>
+  </si>
+  <si>
+    <t>Mackay-01, HK-01-Introduction</t>
+  </si>
+  <si>
+    <t>Toolkit 1, HK-02-Energy Mechanics</t>
+  </si>
+  <si>
+    <t>HK-04-Heat and Work</t>
+  </si>
+  <si>
+    <t>Toolkit 2, HK-03-Conservation of Energy</t>
   </si>
 </sst>
 </file>
@@ -527,7 +503,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -535,8 +511,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="173">
+  <cellStyleXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -710,8 +695,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -752,8 +747,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="173">
+  <cellStyles count="183">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -840,6 +838,11 @@
     <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -926,6 +929,11 @@
     <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1258,10 +1266,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N40"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1276,12 +1284,11 @@
     <col min="8" max="8" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="65.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="1" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -1298,7 +1305,7 @@
         <v>7</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>3</v>
@@ -1312,18 +1319,15 @@
       <c r="J1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1"/>
+      <c r="K1"/>
+      <c r="L1" s="10" t="s">
+        <v>79</v>
+      </c>
       <c r="M1" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1342,13 +1346,13 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
-      <c r="L2"/>
-      <c r="M2" t="s">
-        <v>82</v>
-      </c>
-      <c r="N2"/>
-    </row>
-    <row r="3" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="K2"/>
+      <c r="L2" t="s">
+        <v>80</v>
+      </c>
+      <c r="M2"/>
+    </row>
+    <row r="3" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -1362,28 +1366,22 @@
         <v>23</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G3" s="5"/>
-      <c r="H3" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="J3" s="5"/>
-      <c r="K3" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="L3"/>
-      <c r="M3" t="s">
-        <v>82</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="K3"/>
+      <c r="L3" t="s">
+        <v>80</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -1397,28 +1395,27 @@
         <v>24</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="H4" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="I4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="L4"/>
-      <c r="M4" t="s">
-        <v>82</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1">
+        <v>101</v>
+      </c>
+      <c r="K4"/>
+      <c r="L4" t="s">
+        <v>80</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -1432,24 +1429,21 @@
         <v>25</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="L5"/>
-      <c r="M5" t="s">
-        <v>82</v>
-      </c>
-      <c r="N5"/>
-    </row>
-    <row r="6" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="K5"/>
+      <c r="L5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M5"/>
+    </row>
+    <row r="6" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -1462,25 +1456,22 @@
       <c r="D6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>126</v>
+      <c r="E6" s="16" t="s">
+        <v>137</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="J6" s="5"/>
-      <c r="K6" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="L6"/>
-      <c r="M6" t="s">
-        <v>82</v>
-      </c>
-      <c r="N6"/>
-    </row>
-    <row r="7" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="K6"/>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6"/>
+    </row>
+    <row r="7" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -1491,32 +1482,26 @@
         <v>50</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G7" s="5"/>
-      <c r="H7" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="I7" s="7"/>
       <c r="J7" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="L7"/>
-      <c r="M7" t="s">
-        <v>82</v>
-      </c>
-      <c r="N7"/>
-    </row>
-    <row r="8" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1">
+        <v>102</v>
+      </c>
+      <c r="K7"/>
+      <c r="L7" t="s">
+        <v>80</v>
+      </c>
+      <c r="M7"/>
+    </row>
+    <row r="8" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -1530,25 +1515,24 @@
         <v>27</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="H8" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I8" s="5" t="s">
         <v>9</v>
       </c>
       <c r="J8" s="5"/>
-      <c r="K8" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="L8"/>
-      <c r="M8" t="s">
-        <v>83</v>
-      </c>
-      <c r="N8" s="11"/>
-    </row>
-    <row r="9" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="K8"/>
+      <c r="L8" t="s">
+        <v>81</v>
+      </c>
+      <c r="M8" s="11"/>
+    </row>
+    <row r="9" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A9" s="5">
         <v>4</v>
       </c>
@@ -1559,28 +1543,25 @@
         <v>52</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="L9"/>
-      <c r="M9" t="s">
-        <v>83</v>
-      </c>
-      <c r="N9"/>
-    </row>
-    <row r="10" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="K9"/>
+      <c r="L9" t="s">
+        <v>81</v>
+      </c>
+      <c r="M9"/>
+    </row>
+    <row r="10" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A10" s="5">
         <v>5</v>
       </c>
@@ -1591,32 +1572,29 @@
         <v>53</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>77</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="8"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="L10"/>
-      <c r="M10" t="s">
-        <v>83</v>
-      </c>
-      <c r="N10" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1">
+        <v>103</v>
+      </c>
+      <c r="K10"/>
+      <c r="L10" t="s">
+        <v>81</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A11" s="5">
         <v>5</v>
       </c>
@@ -1630,22 +1608,19 @@
         <v>28</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
-      <c r="L11"/>
-      <c r="M11" t="s">
-        <v>83</v>
-      </c>
-      <c r="N11"/>
-    </row>
-    <row r="12" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="K11"/>
+      <c r="L11" t="s">
+        <v>81</v>
+      </c>
+      <c r="M11"/>
+    </row>
+    <row r="12" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A12" s="5">
         <v>6</v>
       </c>
@@ -1659,22 +1634,24 @@
         <v>29</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="H12" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
-      <c r="L12"/>
-      <c r="M12" t="s">
-        <v>83</v>
-      </c>
-      <c r="N12" s="9"/>
-    </row>
-    <row r="13" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="K12"/>
+      <c r="L12" t="s">
+        <v>81</v>
+      </c>
+      <c r="M12" s="9"/>
+    </row>
+    <row r="13" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A13" s="5">
         <v>6</v>
       </c>
@@ -1694,17 +1671,17 @@
         <v>20</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="L13"/>
+        <v>104</v>
+      </c>
+      <c r="K13"/>
+      <c r="L13" t="s">
+        <v>81</v>
+      </c>
       <c r="M13" t="s">
-        <v>83</v>
-      </c>
-      <c r="N13" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A14" s="5">
         <v>7</v>
       </c>
@@ -1718,22 +1695,19 @@
         <v>31</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
-      <c r="K14" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="L14"/>
-      <c r="M14" t="s">
-        <v>83</v>
-      </c>
-      <c r="N14"/>
-    </row>
-    <row r="15" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="K14"/>
+      <c r="L14" t="s">
+        <v>81</v>
+      </c>
+      <c r="M14"/>
+    </row>
+    <row r="15" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A15" s="5">
         <v>7</v>
       </c>
@@ -1747,7 +1721,7 @@
         <v>32</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="5"/>
@@ -1756,14 +1730,13 @@
         <v>21</v>
       </c>
       <c r="J15" s="5"/>
-      <c r="K15" s="9"/>
-      <c r="L15"/>
-      <c r="M15" t="s">
-        <v>84</v>
-      </c>
-      <c r="N15"/>
-    </row>
-    <row r="16" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="K15"/>
+      <c r="L15" t="s">
+        <v>82</v>
+      </c>
+      <c r="M15"/>
+    </row>
+    <row r="16" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A16" s="5">
         <v>8</v>
       </c>
@@ -1783,18 +1756,15 @@
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="L16"/>
-      <c r="M16" t="s">
-        <v>84</v>
-      </c>
-      <c r="N16"/>
-    </row>
-    <row r="17" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1">
+        <v>105</v>
+      </c>
+      <c r="K16"/>
+      <c r="L16" t="s">
+        <v>82</v>
+      </c>
+      <c r="M16"/>
+    </row>
+    <row r="17" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A17" s="5">
         <v>8</v>
       </c>
@@ -1808,21 +1778,21 @@
         <v>34</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="J17" s="5"/>
+      <c r="K17" t="s">
+        <v>76</v>
+      </c>
       <c r="L17" t="s">
-        <v>76</v>
-      </c>
-      <c r="M17" t="s">
-        <v>84</v>
-      </c>
-      <c r="N17"/>
-    </row>
-    <row r="18" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1">
+        <v>82</v>
+      </c>
+      <c r="M17"/>
+    </row>
+    <row r="18" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A18" s="5">
         <v>9</v>
       </c>
@@ -1841,16 +1811,15 @@
       <c r="H18" s="5"/>
       <c r="I18" s="7"/>
       <c r="J18" s="5"/>
-      <c r="K18" s="9"/>
+      <c r="K18" t="s">
+        <v>76</v>
+      </c>
       <c r="L18" t="s">
-        <v>76</v>
-      </c>
-      <c r="M18" t="s">
-        <v>84</v>
-      </c>
-      <c r="N18"/>
-    </row>
-    <row r="19" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1">
+        <v>82</v>
+      </c>
+      <c r="M18"/>
+    </row>
+    <row r="19" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A19" s="5">
         <v>9</v>
       </c>
@@ -1868,16 +1837,15 @@
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="K19" s="9"/>
-      <c r="L19"/>
-      <c r="M19" t="s">
-        <v>84</v>
-      </c>
-      <c r="N19"/>
-    </row>
-    <row r="20" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1">
+        <v>106</v>
+      </c>
+      <c r="K19"/>
+      <c r="L19" t="s">
+        <v>82</v>
+      </c>
+      <c r="M19"/>
+    </row>
+    <row r="20" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A20" s="5">
         <v>10</v>
       </c>
@@ -1892,23 +1860,17 @@
       </c>
       <c r="E20" s="14"/>
       <c r="F20" s="6" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="G20" s="5"/>
-      <c r="H20" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="J20" s="5"/>
-      <c r="K20" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="L20"/>
-      <c r="M20" t="s">
-        <v>85</v>
-      </c>
-      <c r="N20"/>
-    </row>
-    <row r="21" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="K20"/>
+      <c r="L20" t="s">
+        <v>83</v>
+      </c>
+      <c r="M20"/>
+    </row>
+    <row r="21" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A21" s="5">
         <v>10</v>
       </c>
@@ -1922,23 +1884,20 @@
         <v>38</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="7"/>
       <c r="J21" s="5"/>
-      <c r="K21" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="L21"/>
-      <c r="M21" t="s">
-        <v>85</v>
-      </c>
-      <c r="N21"/>
-    </row>
-    <row r="22" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="K21"/>
+      <c r="L21" t="s">
+        <v>83</v>
+      </c>
+      <c r="M21"/>
+    </row>
+    <row r="22" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A22" s="5">
         <v>11</v>
       </c>
@@ -1949,30 +1908,29 @@
         <v>65</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="5"/>
-      <c r="H22" s="8"/>
+      <c r="H22" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="I22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="K22" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="L22"/>
-      <c r="M22" t="s">
-        <v>85</v>
-      </c>
-      <c r="N22"/>
-    </row>
-    <row r="23" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1">
+        <v>107</v>
+      </c>
+      <c r="K22"/>
+      <c r="L22" t="s">
+        <v>83</v>
+      </c>
+      <c r="M22"/>
+    </row>
+    <row r="23" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A23" s="5">
         <v>11</v>
       </c>
@@ -1983,24 +1941,21 @@
         <v>66</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="J23" s="5"/>
-      <c r="K23" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="L23"/>
-      <c r="M23" t="s">
-        <v>90</v>
-      </c>
-      <c r="N23"/>
-    </row>
-    <row r="24" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="K23"/>
+      <c r="L23" t="s">
+        <v>87</v>
+      </c>
+      <c r="M23"/>
+    </row>
+    <row r="24" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A24" s="5">
         <v>12</v>
       </c>
@@ -2011,10 +1966,10 @@
         <v>67</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="5"/>
@@ -2023,16 +1978,13 @@
         <v>11</v>
       </c>
       <c r="J24" s="5"/>
-      <c r="K24" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="L24"/>
-      <c r="M24" t="s">
-        <v>90</v>
-      </c>
-      <c r="N24"/>
-    </row>
-    <row r="25" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="K24"/>
+      <c r="L24" t="s">
+        <v>87</v>
+      </c>
+      <c r="M24"/>
+    </row>
+    <row r="25" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A25" s="5">
         <v>12</v>
       </c>
@@ -2043,28 +1995,22 @@
         <v>68</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="5"/>
-      <c r="H25" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
-      <c r="K25" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="L25"/>
-      <c r="M25" t="s">
-        <v>90</v>
-      </c>
-      <c r="N25"/>
-    </row>
-    <row r="26" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="K25"/>
+      <c r="L25" t="s">
+        <v>87</v>
+      </c>
+      <c r="M25"/>
+    </row>
+    <row r="26" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A26" s="5">
         <v>13</v>
       </c>
@@ -2080,16 +2026,17 @@
       <c r="E26" s="14"/>
       <c r="F26" s="6"/>
       <c r="G26" s="5"/>
-      <c r="H26" s="8"/>
+      <c r="H26" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="J26" s="5"/>
-      <c r="K26" s="9"/>
-      <c r="L26"/>
-      <c r="M26" t="s">
-        <v>86</v>
-      </c>
-      <c r="N26"/>
-    </row>
-    <row r="27" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="K26"/>
+      <c r="L26" t="s">
+        <v>84</v>
+      </c>
+      <c r="M26"/>
+    </row>
+    <row r="27" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A27" s="5">
         <v>13</v>
       </c>
@@ -2103,23 +2050,22 @@
         <v>41</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="8"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27"/>
-      <c r="M27" t="s">
-        <v>86</v>
-      </c>
-      <c r="N27"/>
-    </row>
-    <row r="28" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="K27"/>
+      <c r="L27" t="s">
+        <v>84</v>
+      </c>
+      <c r="M27"/>
+    </row>
+    <row r="28" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A28" s="5">
         <v>14</v>
       </c>
@@ -2133,23 +2079,20 @@
         <v>42</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="5"/>
       <c r="H28" s="8"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
-      <c r="K28" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="L28"/>
-      <c r="M28" t="s">
-        <v>86</v>
-      </c>
-      <c r="N28"/>
-    </row>
-    <row r="29" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="K28"/>
+      <c r="L28" t="s">
+        <v>84</v>
+      </c>
+      <c r="M28"/>
+    </row>
+    <row r="29" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A29" s="5">
         <v>14</v>
       </c>
@@ -2163,7 +2106,7 @@
         <v>39</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="5"/>
@@ -2172,16 +2115,13 @@
         <v>12</v>
       </c>
       <c r="J29" s="5"/>
-      <c r="K29" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="L29"/>
-      <c r="M29" t="s">
-        <v>86</v>
-      </c>
-      <c r="N29"/>
-    </row>
-    <row r="30" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="K29"/>
+      <c r="L29" t="s">
+        <v>84</v>
+      </c>
+      <c r="M29"/>
+    </row>
+    <row r="30" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A30" s="5">
         <v>15</v>
       </c>
@@ -2200,14 +2140,13 @@
       <c r="H30" s="8"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30"/>
-      <c r="M30" t="s">
-        <v>87</v>
-      </c>
-      <c r="N30"/>
-    </row>
-    <row r="31" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="K30"/>
+      <c r="L30" t="s">
+        <v>85</v>
+      </c>
+      <c r="M30"/>
+    </row>
+    <row r="31" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A31" s="5">
         <v>15</v>
       </c>
@@ -2226,14 +2165,13 @@
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31"/>
-      <c r="M31" t="s">
-        <v>87</v>
-      </c>
-      <c r="N31"/>
-    </row>
-    <row r="32" spans="1:14">
+      <c r="K31"/>
+      <c r="L31" t="s">
+        <v>85</v>
+      </c>
+      <c r="M31"/>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="9"/>
       <c r="B32" s="9">
         <v>31</v>
@@ -2250,64 +2188,45 @@
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="M32" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="33" spans="4:11">
+      <c r="L32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6">
       <c r="D33" s="6"/>
       <c r="E33" s="15"/>
       <c r="F33" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="34" spans="4:11">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6">
       <c r="E34" s="15" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="35" spans="4:11">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="4:6">
       <c r="E35" s="15"/>
     </row>
-    <row r="36" spans="4:11">
+    <row r="36" spans="4:6">
       <c r="E36" s="15"/>
-      <c r="K36" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="37" spans="4:11">
+    </row>
+    <row r="37" spans="4:6">
       <c r="E37" s="15"/>
-      <c r="K37" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="38" spans="4:11">
+    </row>
+    <row r="38" spans="4:6">
       <c r="E38" s="15"/>
-      <c r="K38" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="39" spans="4:11">
+    </row>
+    <row r="39" spans="4:6">
       <c r="E39" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="40" spans="4:11">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="4:6">
       <c r="E40" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/syllabus/330-syllabus.xlsx
+++ b/syllabus/330-syllabus.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="46120" windowHeight="28360" tabRatio="500"/>
+    <workbookView xWindow="25260" yWindow="0" windowWidth="25240" windowHeight="28360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="135">
   <si>
     <t>Lecture</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Project</t>
   </si>
   <si>
-    <t>Week</t>
-  </si>
-  <si>
     <t>Quiz</t>
   </si>
   <si>
@@ -141,9 +138,6 @@
     <t>Global Access to Energy</t>
   </si>
   <si>
-    <t>Local Energy Policy</t>
-  </si>
-  <si>
     <t>National Energy Policy</t>
   </si>
   <si>
@@ -228,9 +222,6 @@
     <t>Thu 06 Nov 2014</t>
   </si>
   <si>
-    <t>Tue 11 Nov 2014</t>
-  </si>
-  <si>
     <t>Thu 13 Nov 2014</t>
   </si>
   <si>
@@ -429,13 +420,10 @@
     <t>Mackay-01, HK-01-Introduction</t>
   </si>
   <si>
-    <t>Toolkit 1, HK-02-Energy Mechanics</t>
-  </si>
-  <si>
     <t>HK-04-Heat and Work</t>
   </si>
   <si>
-    <t>Toolkit 2, HK-03-Conservation of Energy</t>
+    <t>HK-02-Energy Mechanics, HK-03-Conservation of Energy</t>
   </si>
 </sst>
 </file>
@@ -521,8 +509,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="183">
+  <cellStyleXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -751,7 +743,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="183">
+  <cellStyles count="187">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -843,6 +835,8 @@
     <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -934,6 +928,8 @@
     <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1266,967 +1262,848 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M40"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="70.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1"/>
+      <c r="J1"/>
+      <c r="K1" s="10" t="s">
+        <v>76</v>
+      </c>
       <c r="L1" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
-        <v>1</v>
+      <c r="B2" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2"/>
-      <c r="L2" t="s">
-        <v>80</v>
-      </c>
-      <c r="M2"/>
-    </row>
-    <row r="3" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="J2"/>
+      <c r="K2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L2"/>
+    </row>
+    <row r="3" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A3" s="5">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5">
         <v>2</v>
       </c>
+      <c r="B3" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="C3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3"/>
+      <c r="K3" t="s">
+        <v>77</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="J4"/>
+      <c r="K4" t="s">
+        <v>77</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="F3" s="6" t="s">
+      <c r="C5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5"/>
+      <c r="K5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5"/>
+    </row>
+    <row r="6" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6"/>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6"/>
+    </row>
+    <row r="7" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3"/>
-      <c r="L3" t="s">
-        <v>80</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="5">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5">
-        <v>3</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="5" t="s">
+      <c r="J7"/>
+      <c r="K7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L7"/>
+    </row>
+    <row r="8" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="K4"/>
-      <c r="L4" t="s">
-        <v>80</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="5">
-        <v>2</v>
-      </c>
-      <c r="B5" s="5">
-        <v>4</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5"/>
-      <c r="L5" t="s">
-        <v>80</v>
-      </c>
-      <c r="M5"/>
-    </row>
-    <row r="6" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="5">
-        <v>3</v>
-      </c>
-      <c r="B6" s="5">
-        <v>5</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="F6" s="6" t="s">
+      <c r="I8" s="5"/>
+      <c r="J8"/>
+      <c r="K8" t="s">
+        <v>78</v>
+      </c>
+      <c r="L8" s="11"/>
+    </row>
+    <row r="9" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6"/>
-      <c r="L6" t="s">
-        <v>80</v>
-      </c>
-      <c r="M6"/>
-    </row>
-    <row r="7" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="5">
-        <v>3</v>
-      </c>
-      <c r="B7" s="5">
-        <v>6</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="K7"/>
-      <c r="L7" t="s">
-        <v>80</v>
-      </c>
-      <c r="M7"/>
-    </row>
-    <row r="8" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A8" s="5">
-        <v>4</v>
-      </c>
-      <c r="B8" s="5">
-        <v>7</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J8" s="5"/>
-      <c r="K8"/>
-      <c r="L8" t="s">
-        <v>81</v>
-      </c>
-      <c r="M8" s="11"/>
-    </row>
-    <row r="9" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="5">
-        <v>4</v>
-      </c>
-      <c r="B9" s="5">
-        <v>8</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>95</v>
-      </c>
+      <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9"/>
-      <c r="L9" t="s">
-        <v>81</v>
-      </c>
-      <c r="M9"/>
-    </row>
-    <row r="10" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="J9"/>
+      <c r="K9" t="s">
+        <v>78</v>
+      </c>
+      <c r="L9"/>
+    </row>
+    <row r="10" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A10" s="5">
-        <v>5</v>
-      </c>
-      <c r="B10" s="5">
         <v>9</v>
       </c>
+      <c r="B10" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="C10" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10"/>
+      <c r="K10" t="s">
+        <v>78</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11"/>
+      <c r="K11" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11"/>
+    </row>
+    <row r="12" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="K10"/>
-      <c r="L10" t="s">
-        <v>81</v>
-      </c>
-      <c r="M10" s="9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A11" s="5">
-        <v>5</v>
-      </c>
-      <c r="B11" s="5">
-        <v>10</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="C12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12"/>
+      <c r="K12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L12" s="9"/>
+    </row>
+    <row r="13" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11"/>
-      <c r="L11" t="s">
-        <v>81</v>
-      </c>
-      <c r="M11"/>
-    </row>
-    <row r="12" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="5">
-        <v>6</v>
-      </c>
-      <c r="B12" s="5">
-        <v>11</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="C13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="J13"/>
+      <c r="K13" t="s">
+        <v>78</v>
+      </c>
+      <c r="L13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12"/>
-      <c r="L12" t="s">
-        <v>81</v>
-      </c>
-      <c r="M12" s="9"/>
-    </row>
-    <row r="13" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="5">
-        <v>6</v>
-      </c>
-      <c r="B13" s="5">
-        <v>12</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="6" t="s">
+      <c r="C14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="K13"/>
-      <c r="L13" t="s">
-        <v>81</v>
-      </c>
-      <c r="M13" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A14" s="5">
-        <v>7</v>
-      </c>
-      <c r="B14" s="5">
-        <v>13</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>90</v>
-      </c>
+      <c r="E14" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14"/>
-      <c r="L14" t="s">
-        <v>81</v>
-      </c>
-      <c r="M14"/>
-    </row>
-    <row r="15" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="J14"/>
+      <c r="K14" t="s">
+        <v>78</v>
+      </c>
+      <c r="L14"/>
+    </row>
+    <row r="15" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A15" s="5">
-        <v>7</v>
-      </c>
-      <c r="B15" s="5">
         <v>14</v>
       </c>
+      <c r="B15" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="C15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15"/>
+      <c r="K15" t="s">
+        <v>79</v>
+      </c>
+      <c r="L15"/>
+    </row>
+    <row r="16" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J16"/>
+      <c r="K16" t="s">
+        <v>79</v>
+      </c>
+      <c r="L16"/>
+    </row>
+    <row r="17" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J15" s="5"/>
-      <c r="K15"/>
-      <c r="L15" t="s">
-        <v>82</v>
-      </c>
-      <c r="M15"/>
-    </row>
-    <row r="16" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A16" s="5">
-        <v>8</v>
-      </c>
-      <c r="B16" s="5">
-        <v>15</v>
-      </c>
-      <c r="C16" s="6" t="s">
+      <c r="C17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" t="s">
+        <v>73</v>
+      </c>
+      <c r="K17" t="s">
+        <v>79</v>
+      </c>
+      <c r="L17"/>
+    </row>
+    <row r="18" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="K16"/>
-      <c r="L16" t="s">
-        <v>82</v>
-      </c>
-      <c r="M16"/>
-    </row>
-    <row r="17" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A17" s="5">
-        <v>8</v>
-      </c>
-      <c r="B17" s="5">
-        <v>16</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="C18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="5"/>
+      <c r="J18" t="s">
+        <v>73</v>
+      </c>
+      <c r="K18" t="s">
+        <v>79</v>
+      </c>
+      <c r="L18"/>
+    </row>
+    <row r="19" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" t="s">
-        <v>76</v>
-      </c>
-      <c r="L17" t="s">
-        <v>82</v>
-      </c>
-      <c r="M17"/>
-    </row>
-    <row r="18" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A18" s="5">
-        <v>9</v>
-      </c>
-      <c r="B18" s="5">
-        <v>17</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="6" t="s">
+      <c r="C19" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="5"/>
-      <c r="K18" t="s">
-        <v>76</v>
-      </c>
-      <c r="L18" t="s">
-        <v>82</v>
-      </c>
-      <c r="M18"/>
-    </row>
-    <row r="19" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A19" s="5">
-        <v>9</v>
-      </c>
-      <c r="B19" s="5">
-        <v>18</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="K19"/>
-      <c r="L19" t="s">
+      <c r="I19" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="J19"/>
+      <c r="K19" t="s">
+        <v>79</v>
+      </c>
+      <c r="L19"/>
+    </row>
+    <row r="20" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20"/>
+      <c r="K20" t="s">
+        <v>80</v>
+      </c>
+      <c r="L20"/>
+    </row>
+    <row r="21" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="5"/>
+      <c r="J21"/>
+      <c r="K21" t="s">
+        <v>80</v>
+      </c>
+      <c r="L21"/>
+    </row>
+    <row r="22" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="J22"/>
+      <c r="K22" t="s">
+        <v>80</v>
+      </c>
+      <c r="L22"/>
+    </row>
+    <row r="23" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23"/>
+      <c r="K23" t="s">
+        <v>84</v>
+      </c>
+      <c r="L23"/>
+    </row>
+    <row r="24" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A24" s="5">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" s="5"/>
+      <c r="J24"/>
+      <c r="K24" t="s">
+        <v>84</v>
+      </c>
+      <c r="L24"/>
+    </row>
+    <row r="25" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A25" s="5">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25"/>
+      <c r="K25" t="s">
+        <v>84</v>
+      </c>
+      <c r="L25"/>
+    </row>
+    <row r="26" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A26" s="5">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26"/>
+      <c r="K26" t="s">
+        <v>81</v>
+      </c>
+      <c r="L26"/>
+    </row>
+    <row r="27" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A27" s="5">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27"/>
+      <c r="K27" t="s">
+        <v>81</v>
+      </c>
+      <c r="L27"/>
+    </row>
+    <row r="28" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A28" s="5">
+        <v>27</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I28" s="5"/>
+      <c r="J28"/>
+      <c r="K28" t="s">
+        <v>81</v>
+      </c>
+      <c r="L28"/>
+    </row>
+    <row r="29" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A29" s="5">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="14"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29"/>
+      <c r="K29" t="s">
         <v>82</v>
       </c>
-      <c r="M19"/>
-    </row>
-    <row r="20" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A20" s="5">
-        <v>10</v>
-      </c>
-      <c r="B20" s="5">
-        <v>19</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="G20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20"/>
-      <c r="L20" t="s">
-        <v>83</v>
-      </c>
-      <c r="M20"/>
-    </row>
-    <row r="21" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A21" s="5">
-        <v>10</v>
-      </c>
-      <c r="B21" s="5">
-        <v>20</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="5"/>
-      <c r="K21"/>
-      <c r="L21" t="s">
-        <v>83</v>
-      </c>
-      <c r="M21"/>
-    </row>
-    <row r="22" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A22" s="5">
-        <v>11</v>
-      </c>
-      <c r="B22" s="5">
-        <v>21</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="K22"/>
-      <c r="L22" t="s">
-        <v>83</v>
-      </c>
-      <c r="M22"/>
-    </row>
-    <row r="23" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A23" s="5">
-        <v>11</v>
-      </c>
-      <c r="B23" s="5">
-        <v>22</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23"/>
-      <c r="L23" t="s">
-        <v>87</v>
-      </c>
-      <c r="M23"/>
-    </row>
-    <row r="24" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A24" s="5">
-        <v>12</v>
-      </c>
-      <c r="B24" s="5">
-        <v>23</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J24" s="5"/>
-      <c r="K24"/>
-      <c r="L24" t="s">
-        <v>87</v>
-      </c>
-      <c r="M24"/>
-    </row>
-    <row r="25" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A25" s="5">
-        <v>12</v>
-      </c>
-      <c r="B25" s="5">
-        <v>24</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25"/>
-      <c r="L25" t="s">
-        <v>87</v>
-      </c>
-      <c r="M25"/>
-    </row>
-    <row r="26" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A26" s="5">
-        <v>13</v>
-      </c>
-      <c r="B26" s="5">
-        <v>25</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="14"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J26" s="5"/>
-      <c r="K26"/>
-      <c r="L26" t="s">
-        <v>84</v>
-      </c>
-      <c r="M26"/>
-    </row>
-    <row r="27" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A27" s="5">
-        <v>13</v>
-      </c>
-      <c r="B27" s="5">
-        <v>26</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D27" s="6" t="s">
+      <c r="L29"/>
+    </row>
+    <row r="30" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A30" s="5">
+        <v>29</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="14"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30"/>
+      <c r="K30" t="s">
+        <v>82</v>
+      </c>
+      <c r="L30"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="9">
+        <v>30</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="G27" s="5"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27"/>
-      <c r="L27" t="s">
-        <v>84</v>
-      </c>
-      <c r="M27"/>
-    </row>
-    <row r="28" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A28" s="5">
-        <v>14</v>
-      </c>
-      <c r="B28" s="5">
-        <v>27</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28"/>
-      <c r="L28" t="s">
-        <v>84</v>
-      </c>
-      <c r="M28"/>
-    </row>
-    <row r="29" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A29" s="5">
-        <v>14</v>
-      </c>
-      <c r="B29" s="5">
-        <v>28</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="F29" s="6"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J29" s="5"/>
-      <c r="K29"/>
-      <c r="L29" t="s">
-        <v>84</v>
-      </c>
-      <c r="M29"/>
-    </row>
-    <row r="30" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A30" s="5">
-        <v>15</v>
-      </c>
-      <c r="B30" s="5">
-        <v>29</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E30" s="14"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30"/>
-      <c r="L30" t="s">
-        <v>85</v>
-      </c>
-      <c r="M30"/>
-    </row>
-    <row r="31" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A31" s="5">
-        <v>15</v>
-      </c>
-      <c r="B31" s="5">
-        <v>30</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E31" s="14"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31"/>
-      <c r="L31" t="s">
-        <v>85</v>
-      </c>
-      <c r="M31"/>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9">
-        <v>31</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E32" s="14"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="L32" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="33" spans="4:6">
-      <c r="D33" s="6"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="34" spans="4:6">
-      <c r="E34" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="35" spans="4:6">
-      <c r="E35" s="15"/>
-    </row>
-    <row r="36" spans="4:6">
-      <c r="E36" s="15"/>
-    </row>
-    <row r="37" spans="4:6">
-      <c r="E37" s="15"/>
-    </row>
-    <row r="38" spans="4:6">
-      <c r="E38" s="15"/>
-    </row>
-    <row r="39" spans="4:6">
-      <c r="E39" s="15" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="40" spans="4:6">
-      <c r="E40" s="15" t="s">
-        <v>115</v>
+      <c r="D31" s="14"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="K31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="C32" s="6"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5">
+      <c r="D33" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5">
+      <c r="D34" s="15"/>
+    </row>
+    <row r="35" spans="4:5">
+      <c r="D35" s="15"/>
+    </row>
+    <row r="36" spans="4:5">
+      <c r="D36" s="15"/>
+    </row>
+    <row r="37" spans="4:5">
+      <c r="D37" s="15"/>
+    </row>
+    <row r="38" spans="4:5">
+      <c r="D38" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="4:5">
+      <c r="D39" s="15" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/syllabus/330-syllabus.xlsx
+++ b/syllabus/330-syllabus.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20412"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="25260" yWindow="0" windowWidth="25240" windowHeight="28360" tabRatio="500"/>
+    <workbookView xWindow="10660" yWindow="1680" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -45,9 +45,6 @@
     <t>Brainstorm 3 topics</t>
   </si>
   <si>
-    <t>Choose topic</t>
-  </si>
-  <si>
     <t>First draft</t>
   </si>
   <si>
@@ -90,12 +87,6 @@
     <t>History of energy</t>
   </si>
   <si>
-    <t>Physics of Energy</t>
-  </si>
-  <si>
-    <t>Energy Conversion</t>
-  </si>
-  <si>
     <t>Thermodynamics</t>
   </si>
   <si>
@@ -424,6 +415,15 @@
   </si>
   <si>
     <t>HK-02-Energy Mechanics, HK-03-Conservation of Energy</t>
+  </si>
+  <si>
+    <t>IPCC Energy Primer</t>
+  </si>
+  <si>
+    <t>Energy Units and Estimations</t>
+  </si>
+  <si>
+    <t>Energy and Power</t>
   </si>
 </sst>
 </file>
@@ -509,8 +509,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="187">
+  <cellStyleXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -743,7 +747,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="187">
+  <cellStyles count="191">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -837,6 +841,8 @@
     <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -930,6 +936,8 @@
     <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1264,8 +1272,8 @@
   </sheetPr>
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1297,13 +1305,13 @@
         <v>6</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>4</v>
@@ -1313,10 +1321,10 @@
       </c>
       <c r="J1"/>
       <c r="K1" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
@@ -1324,10 +1332,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="6"/>
@@ -1337,7 +1345,7 @@
       <c r="I2" s="5"/>
       <c r="J2"/>
       <c r="K2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="L2"/>
     </row>
@@ -1346,22 +1354,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3"/>
       <c r="K3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
@@ -1369,30 +1377,27 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>23</v>
+        <v>133</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J4"/>
       <c r="K4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
@@ -1400,23 +1405,23 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>24</v>
+        <v>134</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5"/>
       <c r="K5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="L5"/>
     </row>
@@ -1425,23 +1430,23 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6"/>
       <c r="K6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="L6"/>
     </row>
@@ -1450,25 +1455,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F7" s="5"/>
       <c r="H7" s="7"/>
       <c r="I7" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J7"/>
       <c r="K7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="L7"/>
     </row>
@@ -1477,26 +1482,26 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8"/>
       <c r="K8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L8" s="11"/>
     </row>
@@ -1505,16 +1510,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -1522,7 +1527,7 @@
       <c r="I9" s="5"/>
       <c r="J9"/>
       <c r="K9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L9"/>
     </row>
@@ -1531,29 +1536,29 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="8"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J10"/>
       <c r="K10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
@@ -1561,13 +1566,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="5"/>
@@ -1575,7 +1580,7 @@
       <c r="I11" s="5"/>
       <c r="J11"/>
       <c r="K11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L11"/>
     </row>
@@ -1584,26 +1589,26 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12"/>
       <c r="K12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L12" s="9"/>
     </row>
@@ -1612,26 +1617,26 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J13"/>
       <c r="K13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L13" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
@@ -1639,13 +1644,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -1653,7 +1658,7 @@
       <c r="I14" s="5"/>
       <c r="J14"/>
       <c r="K14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L14"/>
     </row>
@@ -1662,24 +1667,24 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15"/>
       <c r="K15" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="L15"/>
     </row>
@@ -1688,23 +1693,23 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J16"/>
       <c r="K16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="L16"/>
     </row>
@@ -1713,23 +1718,23 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K17" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="L17"/>
     </row>
@@ -1738,10 +1743,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="6"/>
@@ -1750,10 +1755,10 @@
       <c r="H18" s="7"/>
       <c r="I18" s="5"/>
       <c r="J18" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K18" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="L18"/>
     </row>
@@ -1762,21 +1767,21 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J19"/>
       <c r="K19" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="L19"/>
     </row>
@@ -1785,20 +1790,20 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20"/>
       <c r="K20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L20"/>
     </row>
@@ -1807,13 +1812,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="5"/>
@@ -1822,7 +1827,7 @@
       <c r="I21" s="5"/>
       <c r="J21"/>
       <c r="K21" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L21"/>
     </row>
@@ -1831,28 +1836,28 @@
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J22"/>
       <c r="K22" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L22"/>
     </row>
@@ -1861,20 +1866,20 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="I23" s="5"/>
       <c r="J23"/>
       <c r="K23" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L23"/>
     </row>
@@ -1883,24 +1888,24 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="5"/>
       <c r="G24" s="8"/>
       <c r="H24" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24"/>
       <c r="K24" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L24"/>
     </row>
@@ -1909,13 +1914,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="5"/>
@@ -1923,7 +1928,7 @@
       <c r="I25" s="5"/>
       <c r="J25"/>
       <c r="K25" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L25"/>
     </row>
@@ -1932,26 +1937,26 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26"/>
       <c r="K26" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="L26"/>
     </row>
@@ -1960,13 +1965,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="5"/>
@@ -1975,7 +1980,7 @@
       <c r="I27" s="5"/>
       <c r="J27"/>
       <c r="K27" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="L27"/>
     </row>
@@ -1984,24 +1989,24 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I28" s="5"/>
       <c r="J28"/>
       <c r="K28" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="L28"/>
     </row>
@@ -2010,10 +2015,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D29" s="14"/>
       <c r="E29" s="6"/>
@@ -2023,7 +2028,7 @@
       <c r="I29" s="5"/>
       <c r="J29"/>
       <c r="K29" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L29"/>
     </row>
@@ -2032,10 +2037,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D30" s="14"/>
       <c r="E30" s="6"/>
@@ -2045,7 +2050,7 @@
       <c r="I30" s="5"/>
       <c r="J30"/>
       <c r="K30" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L30"/>
     </row>
@@ -2054,10 +2059,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D31" s="14"/>
       <c r="E31" s="6"/>
@@ -2066,26 +2071,28 @@
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
       <c r="K31" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="C32" s="6"/>
       <c r="D32" s="15"/>
       <c r="E32" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="4:5">
       <c r="D33" s="15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="4:5">
-      <c r="D34" s="15"/>
+      <c r="D34" s="15" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="35" spans="4:5">
       <c r="D35" s="15"/>
@@ -2098,12 +2105,12 @@
     </row>
     <row r="38" spans="4:5">
       <c r="D38" s="15" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="4:5">
       <c r="D39" s="15" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/syllabus/330-syllabus.xlsx
+++ b/syllabus/330-syllabus.xlsx
@@ -1,14 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20412"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10660" yWindow="1680" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14980" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">schedule!$A$1:$F$31</definedName>
+  </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="133">
   <si>
     <t>Lecture</t>
   </si>
@@ -231,9 +234,6 @@
     <t>Thu 04 Dec 2014</t>
   </si>
   <si>
-    <t>GHTC?</t>
-  </si>
-  <si>
     <t>Lovins 1976</t>
   </si>
   <si>
@@ -388,9 +388,6 @@
   </si>
   <si>
     <t>Energy and Economics</t>
-  </si>
-  <si>
-    <t>TBD (Randolph and Masters?)</t>
   </si>
   <si>
     <t>NC-11 Aqueous Solutions, EPA Hydraulic Fracturing Study</t>
@@ -483,15 +480,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -504,12 +507,40 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="191">
+  <cellStyleXfs count="193">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -701,8 +732,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -719,12 +752,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -733,21 +760,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="191">
+  <cellStyles count="193">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -843,6 +908,7 @@
     <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -938,6 +1004,7 @@
     <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1270,10 +1337,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1282,841 +1349,838 @@
     <col min="2" max="2" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="70.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>4</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J1"/>
-      <c r="K1" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A2" s="5">
+      <c r="J1" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A2" s="23">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="6"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
-      <c r="J2"/>
-      <c r="K2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L2"/>
-    </row>
-    <row r="3" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="5">
+      <c r="J2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K2"/>
+    </row>
+    <row r="3" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A3" s="23">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="D3" s="28"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A4" s="23">
+        <v>3</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="29"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="J4" t="s">
+        <v>73</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A5" s="23">
+        <v>4</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" s="25"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3"/>
-      <c r="K3" t="s">
-        <v>74</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="J4"/>
-      <c r="K4" t="s">
-        <v>74</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="F5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
-      <c r="J5"/>
-      <c r="K5" t="s">
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5"/>
+    </row>
+    <row r="6" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A6" s="23">
+        <v>5</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="E6" s="26"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6"/>
+    </row>
+    <row r="7" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A7" s="23">
+        <v>6</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" s="25"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="J7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K7"/>
+    </row>
+    <row r="8" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A8" s="23">
+        <v>7</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" t="s">
         <v>74</v>
       </c>
-      <c r="L5"/>
-    </row>
-    <row r="6" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6"/>
-      <c r="K6" t="s">
-        <v>74</v>
-      </c>
-      <c r="L6"/>
-    </row>
-    <row r="7" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="J7"/>
-      <c r="K7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L7"/>
-    </row>
-    <row r="8" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="5"/>
-      <c r="J8"/>
-      <c r="K8" t="s">
-        <v>75</v>
-      </c>
-      <c r="L8" s="11"/>
-    </row>
-    <row r="9" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="5">
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A9" s="23">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="C9" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="6" t="s">
+        <v>88</v>
+      </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
-      <c r="J9"/>
-      <c r="K9" t="s">
-        <v>75</v>
-      </c>
-      <c r="L9"/>
-    </row>
-    <row r="10" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="5">
+      <c r="J9" t="s">
+        <v>74</v>
+      </c>
+      <c r="K9"/>
+    </row>
+    <row r="10" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A10" s="23">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="8"/>
+      <c r="C10" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="24"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="J10"/>
-      <c r="K10" t="s">
-        <v>75</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A11" s="5">
+        <v>96</v>
+      </c>
+      <c r="J10" t="s">
+        <v>74</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A11" s="23">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="5"/>
+      <c r="D11" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="25"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="6"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
-      <c r="J11"/>
-      <c r="K11" t="s">
-        <v>75</v>
-      </c>
-      <c r="L11"/>
-    </row>
-    <row r="12" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="5">
+      <c r="J11" t="s">
+        <v>74</v>
+      </c>
+      <c r="K11"/>
+    </row>
+    <row r="12" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A12" s="23">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5" t="s">
+      <c r="D12" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="26" t="s">
         <v>14</v>
+      </c>
+      <c r="F12" s="27"/>
+      <c r="G12" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
-      <c r="J12"/>
-      <c r="K12" t="s">
-        <v>75</v>
-      </c>
-      <c r="L12" s="9"/>
-    </row>
-    <row r="13" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="5">
+      <c r="J12" t="s">
+        <v>74</v>
+      </c>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A13" s="15">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5" t="s">
+      <c r="D13" s="20"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="19" t="s">
         <v>18</v>
       </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="5"/>
       <c r="I13" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="J13"/>
+        <v>97</v>
+      </c>
+      <c r="J13" t="s">
+        <v>74</v>
+      </c>
       <c r="K13" t="s">
-        <v>75</v>
-      </c>
-      <c r="L13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A14" s="5">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A14" s="15">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
-      <c r="J14"/>
-      <c r="K14" t="s">
+      <c r="J14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K14"/>
+    </row>
+    <row r="15" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A15" s="15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="E15" s="18"/>
+      <c r="F15" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" t="s">
         <v>75</v>
       </c>
-      <c r="L14"/>
-    </row>
-    <row r="15" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A15" s="5">
-        <v>14</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15" s="5"/>
-      <c r="J15"/>
-      <c r="K15" t="s">
-        <v>76</v>
-      </c>
-      <c r="L15"/>
-    </row>
-    <row r="16" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A16" s="5">
+      <c r="K15"/>
+    </row>
+    <row r="16" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A16" s="15">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5" t="s">
+      <c r="D16" s="20"/>
+      <c r="E16" s="18" t="s">
         <v>15</v>
       </c>
+      <c r="F16" s="19"/>
+      <c r="G16" s="6"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="J16"/>
-      <c r="K16" t="s">
-        <v>76</v>
-      </c>
-      <c r="L16"/>
-    </row>
-    <row r="17" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A17" s="5">
+        <v>98</v>
+      </c>
+      <c r="J16" t="s">
+        <v>75</v>
+      </c>
+      <c r="K16"/>
+    </row>
+    <row r="17" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A17" s="15">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+      <c r="D17" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="E17" s="18"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" t="s">
-        <v>70</v>
-      </c>
-      <c r="K17" t="s">
-        <v>76</v>
-      </c>
-      <c r="L17"/>
-    </row>
-    <row r="18" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A18" s="5">
+        <v>75</v>
+      </c>
+      <c r="K17"/>
+    </row>
+    <row r="18" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A18" s="15">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="7"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" t="s">
-        <v>70</v>
-      </c>
-      <c r="K18" t="s">
-        <v>76</v>
-      </c>
-      <c r="L18"/>
-    </row>
-    <row r="19" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A19" s="5">
+        <v>75</v>
+      </c>
+      <c r="K18"/>
+    </row>
+    <row r="19" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A19" s="15">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
+      <c r="C19" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="20"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="6"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="J19" t="s">
+        <v>75</v>
+      </c>
+      <c r="K19"/>
+    </row>
+    <row r="20" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A20" s="15">
+        <v>19</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="18"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" t="s">
+        <v>76</v>
+      </c>
+      <c r="K20"/>
+    </row>
+    <row r="21" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A21" s="15">
+        <v>20</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21" s="18"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" t="s">
+        <v>76</v>
+      </c>
+      <c r="K21"/>
+    </row>
+    <row r="22" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A22" s="15">
+        <v>21</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="J19"/>
-      <c r="K19" t="s">
+      <c r="J22" t="s">
         <v>76</v>
       </c>
-      <c r="L19"/>
-    </row>
-    <row r="20" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A20" s="5">
-        <v>19</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="F20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20"/>
-      <c r="K20" t="s">
-        <v>77</v>
-      </c>
-      <c r="L20"/>
-    </row>
-    <row r="21" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A21" s="5">
-        <v>20</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="5"/>
-      <c r="J21"/>
-      <c r="K21" t="s">
-        <v>77</v>
-      </c>
-      <c r="L21"/>
-    </row>
-    <row r="22" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A22" s="5">
-        <v>21</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D22" s="14" t="s">
+      <c r="K22"/>
+    </row>
+    <row r="23" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A23" s="15">
+        <v>22</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="E23" s="18"/>
+      <c r="F23" s="21"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" t="s">
+        <v>80</v>
+      </c>
+      <c r="K23"/>
+    </row>
+    <row r="24" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A24" s="15">
+        <v>23</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D24" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="J22"/>
-      <c r="K22" t="s">
-        <v>77</v>
-      </c>
-      <c r="L22"/>
-    </row>
-    <row r="23" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A23" s="5">
-        <v>22</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D23" s="14" t="s">
+      <c r="E24" s="16"/>
+      <c r="F24" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" t="s">
+        <v>80</v>
+      </c>
+      <c r="K24"/>
+    </row>
+    <row r="25" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A25" s="15">
+        <v>24</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D25" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23"/>
-      <c r="K23" t="s">
-        <v>81</v>
-      </c>
-      <c r="L23"/>
-    </row>
-    <row r="24" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A24" s="5">
-        <v>23</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I24" s="5"/>
-      <c r="J24"/>
-      <c r="K24" t="s">
-        <v>81</v>
-      </c>
-      <c r="L24"/>
-    </row>
-    <row r="25" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A25" s="5">
-        <v>24</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="5"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="6"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
-      <c r="J25"/>
-      <c r="K25" t="s">
-        <v>81</v>
-      </c>
-      <c r="L25"/>
-    </row>
-    <row r="26" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A26" s="5">
+      <c r="J25" t="s">
+        <v>80</v>
+      </c>
+      <c r="K25"/>
+    </row>
+    <row r="26" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A26" s="15">
         <v>25</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5" t="s">
+      <c r="D26" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="E26" s="18" t="s">
         <v>17</v>
+      </c>
+      <c r="F26" s="19"/>
+      <c r="G26" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
-      <c r="J26"/>
-      <c r="K26" t="s">
-        <v>78</v>
-      </c>
-      <c r="L26"/>
-    </row>
-    <row r="27" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A27" s="5">
+      <c r="J26" t="s">
+        <v>77</v>
+      </c>
+      <c r="K26"/>
+    </row>
+    <row r="27" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A27" s="15">
         <v>26</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="8"/>
+      <c r="D27" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="E27" s="16"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="6"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
-      <c r="J27"/>
-      <c r="K27" t="s">
-        <v>78</v>
-      </c>
-      <c r="L27"/>
-    </row>
-    <row r="28" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A28" s="5">
+      <c r="J27" t="s">
+        <v>77</v>
+      </c>
+      <c r="K27"/>
+    </row>
+    <row r="28" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A28" s="15">
         <v>27</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5" t="s">
+      <c r="D28" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E28" s="18"/>
+      <c r="F28" s="19" t="s">
         <v>10</v>
       </c>
+      <c r="G28" s="6"/>
+      <c r="H28" s="5"/>
       <c r="I28" s="5"/>
-      <c r="J28"/>
-      <c r="K28" t="s">
-        <v>78</v>
-      </c>
-      <c r="L28"/>
-    </row>
-    <row r="29" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A29" s="5">
+      <c r="J28" t="s">
+        <v>77</v>
+      </c>
+      <c r="K28"/>
+    </row>
+    <row r="29" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A29" s="15">
         <v>28</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="8"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="6"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
-      <c r="J29"/>
-      <c r="K29" t="s">
-        <v>79</v>
-      </c>
-      <c r="L29"/>
-    </row>
-    <row r="30" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A30" s="5">
+      <c r="J29" t="s">
+        <v>78</v>
+      </c>
+      <c r="K29"/>
+    </row>
+    <row r="30" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A30" s="15">
         <v>29</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="14"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="6"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
-      <c r="J30"/>
-      <c r="K30" t="s">
-        <v>79</v>
-      </c>
-      <c r="L30"/>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="9">
+      <c r="J30" t="s">
+        <v>78</v>
+      </c>
+      <c r="K30"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="15">
         <v>30</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="14"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="K31" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="C32" s="6"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="6" t="s">
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="4:7">
+      <c r="D33" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="4:5">
-      <c r="D33" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="34" spans="4:5">
-      <c r="D34" s="15" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="35" spans="4:5">
-      <c r="D35" s="15"/>
-    </row>
-    <row r="36" spans="4:5">
-      <c r="D36" s="15"/>
-    </row>
-    <row r="37" spans="4:5">
-      <c r="D37" s="15"/>
-    </row>
-    <row r="38" spans="4:5">
-      <c r="D38" s="15" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="39" spans="4:5">
-      <c r="D39" s="15" t="s">
-        <v>109</v>
-      </c>
+    <row r="34" spans="4:7">
+      <c r="D34" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+    </row>
+    <row r="35" spans="4:7">
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+    </row>
+    <row r="36" spans="4:7">
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+    </row>
+    <row r="37" spans="4:7">
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+    </row>
+    <row r="38" spans="4:7">
+      <c r="D38" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+    </row>
+    <row r="39" spans="4:7">
+      <c r="D39" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup scale="77" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>

--- a/syllabus/330-syllabus.xlsx
+++ b/syllabus/330-syllabus.xlsx
@@ -480,7 +480,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -490,6 +490,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,7 +546,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="193">
+  <cellStyleXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -734,8 +740,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -811,8 +823,22 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="193">
+  <cellStyles count="199">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -909,6 +935,9 @@
     <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1005,6 +1034,9 @@
     <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1339,8 +1371,8 @@
   </sheetPr>
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1674,18 +1706,18 @@
       <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="15">
+      <c r="A13" s="23">
         <v>12</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="19" t="s">
+      <c r="D13" s="28"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G13" s="6"/>
@@ -1701,18 +1733,18 @@
       </c>
     </row>
     <row r="14" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A14" s="15">
+      <c r="A14" s="31">
         <v>13</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="19"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="35"/>
       <c r="G14" s="6" t="s">
         <v>83</v>
       </c>
@@ -1724,22 +1756,18 @@
       <c r="K14"/>
     </row>
     <row r="15" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A15" s="15">
+      <c r="A15" s="31">
         <v>14</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="19" t="s">
-        <v>19</v>
-      </c>
+      <c r="D15" s="36"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="36"/>
       <c r="G15" s="6"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
@@ -1749,20 +1777,22 @@
       <c r="K15"/>
     </row>
     <row r="16" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A16" s="15">
+      <c r="A16" s="31">
         <v>15</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="18" t="s">
+      <c r="D16" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="E16" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="19"/>
+      <c r="F16" s="35"/>
       <c r="G16" s="6"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5" t="s">
@@ -1774,20 +1804,20 @@
       <c r="K16"/>
     </row>
     <row r="17" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A17" s="15">
+      <c r="A17" s="31">
         <v>16</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="21"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="35" t="s">
+        <v>19</v>
+      </c>
       <c r="G17" s="6"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
@@ -1806,7 +1836,9 @@
       <c r="C18" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="18"/>
+      <c r="D18" s="18" t="s">
+        <v>119</v>
+      </c>
       <c r="E18" s="18"/>
       <c r="F18" s="22"/>
       <c r="G18" s="6"/>

--- a/syllabus/330-syllabus.xlsx
+++ b/syllabus/330-syllabus.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14980" tabRatio="500"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="134">
   <si>
     <t>Lecture</t>
   </si>
@@ -421,6 +421,9 @@
   </si>
   <si>
     <t>Energy and Power</t>
+  </si>
+  <si>
+    <t>Outline 2</t>
   </si>
 </sst>
 </file>
@@ -480,7 +483,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -489,13 +492,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,7 +543,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="199">
+  <cellStyleXfs count="223">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -746,8 +743,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -805,6 +826,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -823,22 +859,8 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="199">
+  <cellStyles count="223">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -938,6 +960,18 @@
     <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1037,6 +1071,18 @@
     <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1372,7 +1418,7 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1426,18 +1472,18 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A2" s="23">
+      <c r="A2" s="30">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="27"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="34"/>
       <c r="G2" s="6"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -1447,18 +1493,18 @@
       <c r="K2"/>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="23">
+      <c r="A3" s="30">
         <v>2</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="29"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="36"/>
       <c r="G3" s="6" t="s">
         <v>92</v>
       </c>
@@ -1472,22 +1518,22 @@
       </c>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="23">
+      <c r="A4" s="30">
         <v>3</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="29"/>
+      <c r="F4" s="36"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5" t="s">
         <v>94</v>
@@ -1500,20 +1546,20 @@
       </c>
     </row>
     <row r="5" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="23">
+      <c r="A5" s="30">
         <v>4</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="27"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="34"/>
       <c r="G5" s="6" t="s">
         <v>93</v>
       </c>
@@ -1525,20 +1571,20 @@
       <c r="K5"/>
     </row>
     <row r="6" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="23">
+      <c r="A6" s="30">
         <v>5</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="29"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="36"/>
       <c r="G6" s="6" t="s">
         <v>85</v>
       </c>
@@ -1550,20 +1596,20 @@
       <c r="K6"/>
     </row>
     <row r="7" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="23">
+      <c r="A7" s="30">
         <v>6</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="30"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="37"/>
       <c r="G7" s="6" t="s">
         <v>85</v>
       </c>
@@ -1577,22 +1623,22 @@
       <c r="K7"/>
     </row>
     <row r="8" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A8" s="23">
+      <c r="A8" s="30">
         <v>7</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="34" t="s">
         <v>7</v>
       </c>
       <c r="G8" s="6"/>
@@ -1604,18 +1650,18 @@
       <c r="K8" s="9"/>
     </row>
     <row r="9" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="23">
+      <c r="A9" s="30">
         <v>8</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="27"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="34"/>
       <c r="G9" s="6" t="s">
         <v>88</v>
       </c>
@@ -1627,20 +1673,20 @@
       <c r="K9"/>
     </row>
     <row r="10" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="23">
+      <c r="A10" s="30">
         <v>9</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="27"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="34"/>
       <c r="G10" s="6" t="s">
         <v>87</v>
       </c>
@@ -1656,20 +1702,20 @@
       </c>
     </row>
     <row r="11" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A11" s="23">
+      <c r="A11" s="30">
         <v>10</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="27"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="34"/>
       <c r="G11" s="6"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
@@ -1679,22 +1725,22 @@
       <c r="K11"/>
     </row>
     <row r="12" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="23">
+      <c r="A12" s="30">
         <v>11</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="27"/>
+      <c r="F12" s="34"/>
       <c r="G12" s="6" t="s">
         <v>86</v>
       </c>
@@ -1706,18 +1752,18 @@
       <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="23">
+      <c r="A13" s="30">
         <v>12</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="27" t="s">
+      <c r="D13" s="35"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="34" t="s">
         <v>18</v>
       </c>
       <c r="G13" s="6"/>
@@ -1733,18 +1779,18 @@
       </c>
     </row>
     <row r="14" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A14" s="31">
+      <c r="A14" s="30">
         <v>13</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="33"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="34"/>
       <c r="G14" s="6" t="s">
         <v>83</v>
       </c>
@@ -1756,18 +1802,18 @@
       <c r="K14"/>
     </row>
     <row r="15" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A15" s="31">
+      <c r="A15" s="23">
         <v>14</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="36"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="29"/>
       <c r="G15" s="6"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
@@ -1777,22 +1823,21 @@
       <c r="K15"/>
     </row>
     <row r="16" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A16" s="31">
+      <c r="A16" s="23">
         <v>15</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="D16" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="E16" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="35"/>
+      <c r="F16" s="27" t="s">
+        <v>19</v>
+      </c>
       <c r="G16" s="6"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5" t="s">
@@ -1804,19 +1849,18 @@
       <c r="K16"/>
     </row>
     <row r="17" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A17" s="31">
+      <c r="A17" s="23">
         <v>16</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="36"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="35" t="s">
-        <v>19</v>
+      <c r="D17" s="28"/>
+      <c r="E17" s="26" t="s">
+        <v>15</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="5"/>
@@ -1839,8 +1883,6 @@
       <c r="D18" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="22"/>
       <c r="G18" s="6"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
@@ -1861,7 +1903,9 @@
       </c>
       <c r="D19" s="20"/>
       <c r="E19" s="18"/>
-      <c r="F19" s="19"/>
+      <c r="F19" s="19" t="s">
+        <v>133</v>
+      </c>
       <c r="G19" s="6"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5" t="s">
@@ -1883,7 +1927,6 @@
         <v>32</v>
       </c>
       <c r="D20" s="18"/>
-      <c r="E20" s="17"/>
       <c r="F20" s="21"/>
       <c r="G20" s="6" t="s">
         <v>107</v>
@@ -1908,7 +1951,9 @@
       <c r="D21" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="E21" s="18"/>
+      <c r="E21" s="18" t="s">
+        <v>16</v>
+      </c>
       <c r="F21" s="22"/>
       <c r="G21" s="6"/>
       <c r="H21" s="5"/>
@@ -1931,12 +1976,6 @@
       <c r="D22" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="E22" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>8</v>
-      </c>
       <c r="G22" s="6"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5" t="s">
@@ -1961,7 +2000,9 @@
         <v>122</v>
       </c>
       <c r="E23" s="18"/>
-      <c r="F23" s="21"/>
+      <c r="F23" s="19" t="s">
+        <v>8</v>
+      </c>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
       <c r="J23" t="s">
@@ -1983,9 +2024,6 @@
         <v>125</v>
       </c>
       <c r="E24" s="16"/>
-      <c r="F24" s="19" t="s">
-        <v>9</v>
-      </c>
       <c r="G24" s="6"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
@@ -2008,7 +2046,9 @@
         <v>124</v>
       </c>
       <c r="E25" s="17"/>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="s">
+        <v>9</v>
+      </c>
       <c r="G25" s="6"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
@@ -2081,9 +2121,6 @@
         <v>126</v>
       </c>
       <c r="E28" s="18"/>
-      <c r="F28" s="19" t="s">
-        <v>10</v>
-      </c>
       <c r="G28" s="6"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
@@ -2104,7 +2141,9 @@
       </c>
       <c r="D29" s="18"/>
       <c r="E29" s="16"/>
-      <c r="F29" s="19"/>
+      <c r="F29" s="19" t="s">
+        <v>10</v>
+      </c>
       <c r="G29" s="6"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>

--- a/syllabus/330-syllabus.xlsx
+++ b/syllabus/330-syllabus.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14980" tabRatio="500"/>
+    <workbookView xWindow="25260" yWindow="0" windowWidth="25240" windowHeight="28360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="135">
   <si>
     <t>Lecture</t>
   </si>
@@ -111,18 +111,9 @@
     <t>Electricity</t>
   </si>
   <si>
-    <t>Heat</t>
-  </si>
-  <si>
-    <t>Mechanical Work</t>
-  </si>
-  <si>
     <t>Transportation</t>
   </si>
   <si>
-    <t>Buildings</t>
-  </si>
-  <si>
     <t>Midterm</t>
   </si>
   <si>
@@ -424,6 +415,18 @@
   </si>
   <si>
     <t>Outline 2</t>
+  </si>
+  <si>
+    <t>HW3M</t>
+  </si>
+  <si>
+    <t>HW1M, HW2M</t>
+  </si>
+  <si>
+    <t>Heat and Buildings</t>
+  </si>
+  <si>
+    <t>Mid-Semester Review</t>
   </si>
 </sst>
 </file>
@@ -543,7 +546,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="223">
+  <cellStyleXfs count="231">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -767,8 +770,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -822,7 +833,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -832,15 +842,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -859,8 +863,11 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="223">
+  <cellStyles count="231">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -972,6 +979,10 @@
     <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1083,6 +1094,10 @@
     <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1417,8 +1432,8 @@
   </sheetPr>
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1456,7 +1471,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>3</v>
@@ -1465,408 +1480,410 @@
         <v>5</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A2" s="30">
+      <c r="A2" s="25">
         <v>1</v>
       </c>
-      <c r="B2" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="31" t="s">
+      <c r="B2" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="34"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="29"/>
       <c r="G2" s="6"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K2"/>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="30">
+      <c r="A3" s="25">
         <v>2</v>
       </c>
-      <c r="B3" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="31" t="s">
+      <c r="B3" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="36"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="31"/>
       <c r="G3" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="30">
+      <c r="A4" s="25">
         <v>3</v>
       </c>
-      <c r="B4" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="E4" s="33" t="s">
+      <c r="B4" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="36"/>
+      <c r="F4" s="31"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="30">
+      <c r="A5" s="25">
         <v>4</v>
       </c>
-      <c r="B5" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="D5" s="33" t="s">
+      <c r="B5" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="E5" s="32"/>
-      <c r="F5" s="34"/>
+      <c r="D5" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="27"/>
+      <c r="F5" s="29"/>
       <c r="G5" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K5"/>
     </row>
     <row r="6" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="30">
+      <c r="A6" s="25">
         <v>5</v>
       </c>
-      <c r="B6" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="31" t="s">
+      <c r="B6" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="36"/>
+      <c r="D6" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6" s="28"/>
+      <c r="F6" s="31"/>
       <c r="G6" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K6"/>
     </row>
     <row r="7" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="30">
+      <c r="A7" s="25">
         <v>6</v>
       </c>
-      <c r="B7" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="37"/>
+      <c r="B7" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" s="27"/>
+      <c r="F7" s="32"/>
       <c r="G7" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K7"/>
     </row>
     <row r="8" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A8" s="30">
+      <c r="A8" s="25">
         <v>7</v>
       </c>
-      <c r="B8" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="31" t="s">
+      <c r="B8" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="E8" s="33" t="s">
+      <c r="D8" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="34" t="s">
+      <c r="F8" s="29" t="s">
         <v>7</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K8" s="9"/>
     </row>
     <row r="9" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="30">
+      <c r="A9" s="25">
         <v>8</v>
       </c>
-      <c r="B9" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="34"/>
+      <c r="B9" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="29"/>
       <c r="G9" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K9"/>
     </row>
     <row r="10" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="30">
+      <c r="A10" s="25">
         <v>9</v>
       </c>
-      <c r="B10" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="34"/>
+      <c r="B10" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="26"/>
+      <c r="F10" s="29"/>
       <c r="G10" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A11" s="30">
+      <c r="A11" s="25">
         <v>10</v>
       </c>
-      <c r="B11" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="31" t="s">
+      <c r="B11" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="34"/>
+      <c r="D11" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="27"/>
+      <c r="F11" s="29"/>
       <c r="G11" s="6"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K11"/>
     </row>
     <row r="12" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="30">
+      <c r="A12" s="25">
         <v>11</v>
       </c>
-      <c r="B12" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="31" t="s">
+      <c r="B12" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="33" t="s">
+      <c r="D12" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="34"/>
+      <c r="F12" s="29"/>
       <c r="G12" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="30">
+      <c r="A13" s="25">
         <v>12</v>
       </c>
-      <c r="B13" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="31" t="s">
+      <c r="B13" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="34" t="s">
+      <c r="D13" s="30"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="29" t="s">
         <v>18</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A14" s="30">
+      <c r="A14" s="25">
         <v>13</v>
       </c>
-      <c r="B14" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="31" t="s">
+      <c r="B14" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="34"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="29"/>
       <c r="G14" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K14"/>
     </row>
     <row r="15" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A15" s="23">
+      <c r="A15" s="25">
         <v>14</v>
       </c>
-      <c r="B15" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="24" t="s">
+      <c r="B15" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="25"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="29"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="33"/>
       <c r="G15" s="6"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K15"/>
     </row>
     <row r="16" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A16" s="23">
+      <c r="A16" s="25">
         <v>15</v>
       </c>
-      <c r="B16" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="F16" s="27" t="s">
+      <c r="B16" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="E16" s="30"/>
+      <c r="F16" s="29" t="s">
         <v>19</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J16" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K16"/>
     </row>
     <row r="17" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A17" s="23">
+      <c r="A17" s="22">
         <v>16</v>
       </c>
-      <c r="B17" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="26" t="s">
+      <c r="B17" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="34"/>
+      <c r="E17" s="24" t="s">
         <v>15</v>
       </c>
+      <c r="F17" s="35"/>
       <c r="G17" s="6"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K17"/>
     </row>
@@ -1875,19 +1892,20 @@
         <v>17</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>31</v>
+        <v>134</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>119</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="F18" s="35"/>
       <c r="G18" s="6"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K18"/>
     </row>
@@ -1896,23 +1914,21 @@
         <v>18</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D19" s="20"/>
       <c r="E19" s="18"/>
-      <c r="F19" s="19" t="s">
-        <v>133</v>
-      </c>
+      <c r="F19" s="35"/>
       <c r="G19" s="6"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J19" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K19"/>
     </row>
@@ -1921,20 +1937,23 @@
         <v>19</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>32</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C20" s="16"/>
       <c r="D20" s="18"/>
-      <c r="F20" s="21"/>
+      <c r="E20" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>130</v>
+      </c>
       <c r="G20" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K20"/>
     </row>
@@ -1943,23 +1962,23 @@
         <v>20</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="22"/>
+      <c r="F21" s="21"/>
       <c r="G21" s="6"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K21"/>
     </row>
@@ -1968,21 +1987,25 @@
         <v>21</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>123</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="F22" s="35"/>
       <c r="G22" s="6"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J22" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K22"/>
     </row>
@@ -1991,13 +2014,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E23" s="18"/>
       <c r="F23" s="19" t="s">
@@ -2006,7 +2029,7 @@
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
       <c r="J23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K23"/>
     </row>
@@ -2015,20 +2038,21 @@
         <v>23</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E24" s="16"/>
+      <c r="F24" s="35"/>
       <c r="G24" s="6"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K24"/>
     </row>
@@ -2037,13 +2061,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E25" s="17"/>
       <c r="F25" s="19" t="s">
@@ -2053,7 +2077,7 @@
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K25"/>
     </row>
@@ -2062,25 +2086,25 @@
         <v>25</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>17</v>
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K26"/>
     </row>
@@ -2089,13 +2113,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E27" s="16"/>
       <c r="F27" s="19"/>
@@ -2103,7 +2127,7 @@
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
       <c r="J27" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K27"/>
     </row>
@@ -2112,20 +2136,21 @@
         <v>27</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E28" s="18"/>
+      <c r="F28" s="35"/>
       <c r="G28" s="6"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
       <c r="J28" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K28"/>
     </row>
@@ -2134,10 +2159,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D29" s="18"/>
       <c r="E29" s="16"/>
@@ -2148,7 +2173,7 @@
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K29"/>
     </row>
@@ -2157,10 +2182,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D30" s="18"/>
       <c r="E30" s="18"/>
@@ -2169,7 +2194,7 @@
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K30"/>
     </row>
@@ -2178,10 +2203,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
@@ -2190,7 +2215,7 @@
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
       <c r="J31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2199,22 +2224,22 @@
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
       <c r="G32" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="4:7">
       <c r="D33" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
       <c r="G33" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="4:7">
       <c r="D34" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
@@ -2236,14 +2261,14 @@
     </row>
     <row r="38" spans="4:7">
       <c r="D38" s="10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
     </row>
     <row r="39" spans="4:7">
       <c r="D39" s="10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>

--- a/syllabus/330-syllabus.xlsx
+++ b/syllabus/330-syllabus.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="25260" yWindow="0" windowWidth="25240" windowHeight="28360" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14980" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="137">
   <si>
     <t>Lecture</t>
   </si>
@@ -333,15 +333,9 @@
     <t>Moore</t>
   </si>
   <si>
-    <t>Check all Masters and Randolph</t>
-  </si>
-  <si>
     <t>GMC Sustainability Day</t>
   </si>
   <si>
-    <t>rational middle videos</t>
-  </si>
-  <si>
     <t>Carbon (Critters and Combustion)</t>
   </si>
   <si>
@@ -420,20 +414,32 @@
     <t>HW3M</t>
   </si>
   <si>
-    <t>HW1M, HW2M</t>
-  </si>
-  <si>
     <t>Heat and Buildings</t>
   </si>
   <si>
     <t>Mid-Semester Review</t>
+  </si>
+  <si>
+    <t>HW4M</t>
+  </si>
+  <si>
+    <t>HW5M</t>
+  </si>
+  <si>
+    <t>Sustainability Day</t>
+  </si>
+  <si>
+    <t>HW1M</t>
+  </si>
+  <si>
+    <t>HW2M</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -480,10 +486,24 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Courier"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Courier"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Courier"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Courier"/>
     </font>
   </fonts>
   <fills count="3">
@@ -546,7 +566,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="231">
+  <cellStyleXfs count="241">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -778,96 +798,116 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="231">
+  <cellStyles count="241">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -983,6 +1023,11 @@
     <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1098,6 +1143,11 @@
     <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1432,18 +1482,18 @@
   </sheetPr>
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="70.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="92.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="25.1640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
@@ -1452,826 +1502,855 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="10" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A2" s="25">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" t="s">
+      <c r="D2" s="13"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="K2"/>
+      <c r="K2" s="18"/>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="25">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="6" t="s">
+      <c r="D3" s="19"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" t="s">
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="22" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="25">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="21"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="20"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" s="18"/>
+    </row>
+    <row r="6" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="K6" s="18"/>
+    </row>
+    <row r="7" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7" s="20"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="K7" s="18"/>
+    </row>
+    <row r="8" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A8" s="11">
+        <v>7</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="16"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="K8" s="24"/>
+    </row>
+    <row r="9" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="K9" s="18"/>
+    </row>
+    <row r="10" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A10" s="11">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="K10" s="22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="20"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" s="18"/>
+    </row>
+    <row r="12" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A12" s="11">
+        <v>11</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" s="22"/>
+    </row>
+    <row r="13" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A13" s="11">
+        <v>12</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="19"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="16"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="J13" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A14" s="11">
+        <v>13</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="19"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="K14" s="18"/>
+    </row>
+    <row r="15" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A15" s="11">
+        <v>14</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="K15" s="18"/>
+    </row>
+    <row r="16" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A16" s="11">
+        <v>15</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E16" s="26"/>
+      <c r="F16" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="16"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="J16" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="K16" s="18"/>
+    </row>
+    <row r="17" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A17" s="11">
+        <v>16</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="19"/>
+      <c r="E17" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="25"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="K17" s="18"/>
+    </row>
+    <row r="18" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A18" s="11">
+        <v>17</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="E18" s="27"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="K18" s="18"/>
+    </row>
+    <row r="19" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A19" s="11">
+        <v>18</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="19"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="J19" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="K19" s="18"/>
+    </row>
+    <row r="20" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A20" s="28">
+        <v>19</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="D20" s="18"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="D4" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="31"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="J4" t="s">
-        <v>70</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="25">
-        <v>4</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="26" t="s">
+      <c r="G20" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="K20" s="18"/>
+    </row>
+    <row r="21" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A21" s="28">
+        <v>20</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="F21" s="33"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="K21" s="18"/>
+    </row>
+    <row r="22" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A22" s="28">
+        <v>21</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="F22" s="34"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="J22" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="K22" s="18"/>
+    </row>
+    <row r="23" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A23" s="28">
+        <v>22</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="18"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="K23" s="18"/>
+    </row>
+    <row r="24" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A24" s="28">
+        <v>23</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="E24" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="D5" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" t="s">
-        <v>70</v>
-      </c>
-      <c r="K5"/>
-    </row>
-    <row r="6" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="25">
-        <v>5</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="28" t="s">
+      <c r="F24" s="34"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="K24" s="18"/>
+    </row>
+    <row r="25" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A25" s="28">
+        <v>24</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="E25" s="35"/>
+      <c r="F25" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="16"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="K25" s="18"/>
+    </row>
+    <row r="26" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A26" s="28">
+        <v>25</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="31"/>
+      <c r="G26" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K26" s="18"/>
+    </row>
+    <row r="27" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A27" s="28">
+        <v>26</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="E27" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="F27" s="31"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K27" s="18"/>
+    </row>
+    <row r="28" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A28" s="28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="E28" s="32"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K28" s="18"/>
+    </row>
+    <row r="29" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A29" s="28">
+        <v>28</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="16"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="K29" s="18"/>
+    </row>
+    <row r="30" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A30" s="28">
+        <v>29</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="K30" s="18"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="28">
+        <v>30</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="F31" s="31"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="K31" s="18"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="36"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="36"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="36"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" t="s">
-        <v>70</v>
-      </c>
-      <c r="K6"/>
-    </row>
-    <row r="7" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="25">
-        <v>6</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="J7" t="s">
-        <v>70</v>
-      </c>
-      <c r="K7"/>
-    </row>
-    <row r="8" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A8" s="25">
-        <v>7</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" t="s">
-        <v>71</v>
-      </c>
-      <c r="K8" s="9"/>
-    </row>
-    <row r="9" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="25">
-        <v>8</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" t="s">
-        <v>71</v>
-      </c>
-      <c r="K9"/>
-    </row>
-    <row r="10" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="25">
-        <v>9</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" s="26"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="J10" t="s">
-        <v>71</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A11" s="25">
-        <v>10</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" t="s">
-        <v>71</v>
-      </c>
-      <c r="K11"/>
-    </row>
-    <row r="12" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="25">
-        <v>11</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" t="s">
-        <v>71</v>
-      </c>
-      <c r="K12" s="7"/>
-    </row>
-    <row r="13" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="25">
-        <v>12</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="J13" t="s">
-        <v>71</v>
-      </c>
-      <c r="K13" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A14" s="25">
-        <v>13</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" t="s">
-        <v>71</v>
-      </c>
-      <c r="K14"/>
-    </row>
-    <row r="15" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A15" s="25">
-        <v>14</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" t="s">
-        <v>72</v>
-      </c>
-      <c r="K15"/>
-    </row>
-    <row r="16" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A16" s="25">
-        <v>15</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="E16" s="30"/>
-      <c r="F16" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="J16" t="s">
-        <v>72</v>
-      </c>
-      <c r="K16"/>
-    </row>
-    <row r="17" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A17" s="22">
-        <v>16</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="34"/>
-      <c r="E17" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="35"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" t="s">
-        <v>72</v>
-      </c>
-      <c r="K17"/>
-    </row>
-    <row r="18" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A18" s="15">
-        <v>17</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="F18" s="35"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" t="s">
-        <v>72</v>
-      </c>
-      <c r="K18"/>
-    </row>
-    <row r="19" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A19" s="15">
-        <v>18</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="J19" t="s">
-        <v>72</v>
-      </c>
-      <c r="K19"/>
-    </row>
-    <row r="20" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A20" s="15">
-        <v>19</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" t="s">
-        <v>73</v>
-      </c>
-      <c r="K20"/>
-    </row>
-    <row r="21" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A21" s="15">
-        <v>20</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="21"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" t="s">
-        <v>73</v>
-      </c>
-      <c r="K21"/>
-    </row>
-    <row r="22" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A22" s="15">
-        <v>21</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="F22" s="35"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="J22" t="s">
-        <v>73</v>
-      </c>
-      <c r="K22"/>
-    </row>
-    <row r="23" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A23" s="15">
-        <v>22</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="E23" s="18"/>
-      <c r="F23" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" t="s">
-        <v>77</v>
-      </c>
-      <c r="K23"/>
-    </row>
-    <row r="24" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A24" s="15">
-        <v>23</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="E24" s="16"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" t="s">
-        <v>77</v>
-      </c>
-      <c r="K24"/>
-    </row>
-    <row r="25" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A25" s="15">
-        <v>24</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="E25" s="17"/>
-      <c r="F25" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25" s="6"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" t="s">
-        <v>77</v>
-      </c>
-      <c r="K25"/>
-    </row>
-    <row r="26" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A26" s="15">
-        <v>25</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="19"/>
-      <c r="G26" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" t="s">
-        <v>74</v>
-      </c>
-      <c r="K26"/>
-    </row>
-    <row r="27" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A27" s="15">
-        <v>26</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="E27" s="16"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" t="s">
-        <v>74</v>
-      </c>
-      <c r="K27"/>
-    </row>
-    <row r="28" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A28" s="15">
-        <v>27</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="E28" s="18"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" t="s">
-        <v>74</v>
-      </c>
-      <c r="K28"/>
-    </row>
-    <row r="29" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A29" s="15">
-        <v>28</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="6"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" t="s">
-        <v>75</v>
-      </c>
-      <c r="K29"/>
-    </row>
-    <row r="30" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A30" s="15">
-        <v>29</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" t="s">
-        <v>75</v>
-      </c>
-      <c r="K30"/>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="15">
-        <v>30</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="C32" s="6"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="33" spans="4:7">
-      <c r="D33" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="34" spans="4:7">
-      <c r="D34" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-    </row>
-    <row r="35" spans="4:7">
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-    </row>
-    <row r="36" spans="4:7">
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-    </row>
-    <row r="37" spans="4:7">
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-    </row>
-    <row r="38" spans="4:7">
-      <c r="D38" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-    </row>
-    <row r="39" spans="4:7">
-      <c r="D39" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/syllabus/330-syllabus.xlsx
+++ b/syllabus/330-syllabus.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14980" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26720" windowHeight="14920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="133">
   <si>
     <t>Lecture</t>
   </si>
@@ -72,12 +72,6 @@
     <t>Homework 3</t>
   </si>
   <si>
-    <t>Homework 4</t>
-  </si>
-  <si>
-    <t>Homework 5</t>
-  </si>
-  <si>
     <t>Outline</t>
   </si>
   <si>
@@ -418,12 +412,6 @@
   </si>
   <si>
     <t>Mid-Semester Review</t>
-  </si>
-  <si>
-    <t>HW4M</t>
-  </si>
-  <si>
-    <t>HW5M</t>
   </si>
   <si>
     <t>Sustainability Day</t>
@@ -809,7 +797,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -906,6 +894,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="241">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1483,7 +1472,7 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1521,7 +1510,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H1" s="9" t="s">
         <v>3</v>
@@ -1530,10 +1519,10 @@
         <v>5</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
@@ -1541,10 +1530,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="14"/>
@@ -1553,7 +1542,7 @@
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
       <c r="J2" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K2" s="18"/>
     </row>
@@ -1562,24 +1551,24 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="20"/>
       <c r="F3" s="21"/>
       <c r="G3" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H3" s="17"/>
       <c r="I3" s="17"/>
       <c r="J3" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K3" s="22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
@@ -1587,13 +1576,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>13</v>
@@ -1602,13 +1591,13 @@
       <c r="G4" s="18"/>
       <c r="H4" s="17"/>
       <c r="I4" s="17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
@@ -1616,23 +1605,23 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="15"/>
       <c r="G5" s="16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H5" s="17"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K5" s="18"/>
     </row>
@@ -1641,23 +1630,23 @@
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="21"/>
       <c r="G6" s="16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
       <c r="J6" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K6" s="18"/>
     </row>
@@ -1666,25 +1655,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C7" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>104</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>106</v>
       </c>
       <c r="E7" s="20"/>
       <c r="F7" s="23"/>
       <c r="G7" s="16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H7" s="17"/>
       <c r="I7" s="17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K7" s="18"/>
     </row>
@@ -1693,13 +1682,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>12</v>
@@ -1711,7 +1700,7 @@
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
       <c r="J8" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K8" s="24"/>
     </row>
@@ -1720,21 +1709,21 @@
         <v>8</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
       <c r="F9" s="15"/>
       <c r="G9" s="16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H9" s="17"/>
       <c r="I9" s="17"/>
       <c r="J9" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K9" s="18"/>
     </row>
@@ -1743,28 +1732,28 @@
         <v>9</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="15"/>
       <c r="G10" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H10" s="17"/>
       <c r="I10" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K10" s="22" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
@@ -1772,13 +1761,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E11" s="20"/>
       <c r="F11" s="15"/>
@@ -1786,7 +1775,7 @@
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
       <c r="J11" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K11" s="18"/>
     </row>
@@ -1795,25 +1784,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
       <c r="J12" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K12" s="22"/>
     </row>
@@ -1822,26 +1811,26 @@
         <v>12</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="14"/>
       <c r="F13" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G13" s="16"/>
       <c r="H13" s="17"/>
       <c r="I13" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
@@ -1849,21 +1838,21 @@
         <v>13</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="14"/>
       <c r="F14" s="15"/>
       <c r="G14" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
       <c r="J14" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K14" s="18"/>
     </row>
@@ -1872,10 +1861,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="14"/>
@@ -1884,7 +1873,7 @@
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
       <c r="J15" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K15" s="18"/>
     </row>
@@ -1893,25 +1882,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E16" s="26"/>
       <c r="F16" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G16" s="16"/>
       <c r="H16" s="17"/>
       <c r="I16" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J16" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K16" s="18"/>
     </row>
@@ -1920,10 +1909,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D17" s="19"/>
       <c r="E17" s="14" t="s">
@@ -1934,7 +1923,7 @@
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
       <c r="J17" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K17" s="18"/>
     </row>
@@ -1943,13 +1932,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E18" s="27"/>
       <c r="F18" s="25"/>
@@ -1957,7 +1946,7 @@
       <c r="H18" s="17"/>
       <c r="I18" s="17"/>
       <c r="J18" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K18" s="18"/>
     </row>
@@ -1966,10 +1955,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="14"/>
@@ -1977,35 +1966,35 @@
       <c r="G19" s="16"/>
       <c r="H19" s="17"/>
       <c r="I19" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J19" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K19" s="18"/>
     </row>
     <row r="20" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A20" s="28">
+      <c r="A20" s="11">
         <v>19</v>
       </c>
-      <c r="B20" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="31" t="s">
-        <v>128</v>
+      <c r="B20" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" s="38"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="15" t="s">
+        <v>126</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
       <c r="J20" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K20" s="18"/>
     </row>
@@ -2014,23 +2003,23 @@
         <v>20</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F21" s="33"/>
       <c r="G21" s="16"/>
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
       <c r="J21" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K21" s="18"/>
     </row>
@@ -2039,25 +2028,25 @@
         <v>21</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F22" s="34"/>
       <c r="G22" s="16"/>
       <c r="H22" s="17"/>
       <c r="I22" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J22" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K22" s="18"/>
     </row>
@@ -2066,17 +2055,15 @@
         <v>22</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="E23" s="32" t="s">
-        <v>16</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="E23" s="32"/>
       <c r="F23" s="31" t="s">
         <v>8</v>
       </c>
@@ -2084,7 +2071,7 @@
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
       <c r="J23" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K23" s="18"/>
     </row>
@@ -2093,23 +2080,23 @@
         <v>23</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F24" s="34"/>
       <c r="G24" s="16"/>
       <c r="H24" s="17"/>
       <c r="I24" s="17"/>
       <c r="J24" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K24" s="18"/>
     </row>
@@ -2118,13 +2105,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E25" s="35"/>
       <c r="F25" s="31" t="s">
@@ -2134,7 +2121,7 @@
       <c r="H25" s="17"/>
       <c r="I25" s="17"/>
       <c r="J25" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K25" s="18"/>
     </row>
@@ -2143,25 +2130,23 @@
         <v>25</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="E26" s="32" t="s">
-        <v>17</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="E26" s="32"/>
       <c r="F26" s="31"/>
       <c r="G26" s="16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H26" s="17"/>
       <c r="I26" s="17"/>
       <c r="J26" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K26" s="18"/>
     </row>
@@ -2170,23 +2155,21 @@
         <v>26</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D27" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="E27" s="32" t="s">
-        <v>132</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="E27" s="32"/>
       <c r="F27" s="31"/>
       <c r="G27" s="16"/>
       <c r="H27" s="17"/>
       <c r="I27" s="17"/>
       <c r="J27" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K27" s="18"/>
     </row>
@@ -2195,13 +2178,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E28" s="32"/>
       <c r="F28" s="34"/>
@@ -2209,7 +2192,7 @@
       <c r="H28" s="17"/>
       <c r="I28" s="17"/>
       <c r="J28" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K28" s="18"/>
     </row>
@@ -2218,10 +2201,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D29" s="32"/>
       <c r="E29" s="32"/>
@@ -2232,7 +2215,7 @@
       <c r="H29" s="17"/>
       <c r="I29" s="17"/>
       <c r="J29" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K29" s="18"/>
     </row>
@@ -2241,10 +2224,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D30" s="32"/>
       <c r="E30" s="32"/>
@@ -2253,7 +2236,7 @@
       <c r="H30" s="17"/>
       <c r="I30" s="17"/>
       <c r="J30" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K30" s="18"/>
     </row>
@@ -2262,21 +2245,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D31" s="32"/>
-      <c r="E31" s="32" t="s">
-        <v>133</v>
-      </c>
+      <c r="E31" s="32"/>
       <c r="F31" s="31"/>
       <c r="G31" s="16"/>
       <c r="H31" s="22"/>
       <c r="I31" s="22"/>
       <c r="J31" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K31" s="18"/>
     </row>
@@ -2288,7 +2269,7 @@
       <c r="E32" s="37"/>
       <c r="F32" s="37"/>
       <c r="G32" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H32" s="36"/>
       <c r="I32" s="36"/>
@@ -2300,12 +2281,12 @@
       <c r="B33" s="36"/>
       <c r="C33" s="36"/>
       <c r="D33" s="37" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E33" s="37"/>
       <c r="F33" s="37"/>
       <c r="G33" s="36" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H33" s="36"/>
       <c r="I33" s="36"/>
@@ -2317,7 +2298,7 @@
       <c r="B34" s="36"/>
       <c r="C34" s="36"/>
       <c r="D34" s="37" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E34" s="37"/>
       <c r="F34" s="37"/>
